--- a/Бизнес-планирование в строительстве/Kniga1.xlsx
+++ b/Бизнес-планирование в строительстве/Kniga1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\3-term-of-SPBSTU\Бизнес-планирование в строительстве\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="4755" windowHeight="9030"/>
   </bookViews>
@@ -40,19 +45,6 @@
     <externalReference r:id="rId29"/>
     <externalReference r:id="rId30"/>
     <externalReference r:id="rId31"/>
-    <externalReference r:id="rId32"/>
-    <externalReference r:id="rId33"/>
-    <externalReference r:id="rId34"/>
-    <externalReference r:id="rId35"/>
-    <externalReference r:id="rId36"/>
-    <externalReference r:id="rId37"/>
-    <externalReference r:id="rId38"/>
-    <externalReference r:id="rId39"/>
-    <externalReference r:id="rId40"/>
-    <externalReference r:id="rId41"/>
-    <externalReference r:id="rId42"/>
-    <externalReference r:id="rId43"/>
-    <externalReference r:id="rId44"/>
   </externalReferences>
   <definedNames>
     <definedName name="___wrn2" hidden="1">{"glc1",#N/A,FALSE,"GLC";"glc2",#N/A,FALSE,"GLC";"glc3",#N/A,FALSE,"GLC";"glc4",#N/A,FALSE,"GLC";"glc5",#N/A,FALSE,"GLC"}</definedName>
@@ -66,7 +58,7 @@
     <definedName name="__RAC1" hidden="1">#REF!</definedName>
     <definedName name="__RI1">#REF!</definedName>
     <definedName name="__RR1">#REF!</definedName>
-    <definedName name="__usd1">'[14]общие сведения'!$B$6</definedName>
+    <definedName name="__usd1">'[1]общие сведения'!$B$6</definedName>
     <definedName name="__wrn2" localSheetId="0" hidden="1">{"glc1",#N/A,FALSE,"GLC";"glc2",#N/A,FALSE,"GLC";"glc3",#N/A,FALSE,"GLC";"glc4",#N/A,FALSE,"GLC";"glc5",#N/A,FALSE,"GLC"}</definedName>
     <definedName name="_j1">#REF!</definedName>
     <definedName name="_PR1">#REF!</definedName>
@@ -77,18 +69,18 @@
     <definedName name="_RAC1" hidden="1">#REF!</definedName>
     <definedName name="_RI1">#REF!</definedName>
     <definedName name="_RR1">#REF!</definedName>
-    <definedName name="_usd1">'[14]общие сведения'!$B$6</definedName>
+    <definedName name="_usd1">'[1]общие сведения'!$B$6</definedName>
     <definedName name="_wrn2" hidden="1">{"glc1",#N/A,FALSE,"GLC";"glc2",#N/A,FALSE,"GLC";"glc3",#N/A,FALSE,"GLC";"glc4",#N/A,FALSE,"GLC";"glc5",#N/A,FALSE,"GLC"}</definedName>
     <definedName name="a" hidden="1">#REF!</definedName>
     <definedName name="AccessDatabase" hidden="1">"C:\Мои документы\Книга расценок 3.mdb"</definedName>
     <definedName name="AS2DocOpenMode" hidden="1">"AS2DocumentEdit"</definedName>
     <definedName name="beginyear">#REF!</definedName>
-    <definedName name="BLPH1" localSheetId="0" hidden="1">'[36]Read me first'!$D$15</definedName>
-    <definedName name="BLPH1" hidden="1">'[4]Read me first'!$D$15</definedName>
-    <definedName name="BLPH2" localSheetId="0" hidden="1">'[36]Read me first'!$Z$15</definedName>
-    <definedName name="BLPH2" hidden="1">'[4]Read me first'!$Z$15</definedName>
-    <definedName name="Cover">[5]Glossary!$B$46:$B$56</definedName>
-    <definedName name="date" localSheetId="0">'[37]Master Inputs Start Here'!$D$12</definedName>
+    <definedName name="BLPH1" localSheetId="0" hidden="1">'[2]Read me first'!$D$15</definedName>
+    <definedName name="BLPH1" hidden="1">'[3]Read me first'!$D$15</definedName>
+    <definedName name="BLPH2" localSheetId="0" hidden="1">'[2]Read me first'!$Z$15</definedName>
+    <definedName name="BLPH2" hidden="1">'[3]Read me first'!$Z$15</definedName>
+    <definedName name="Cover">[4]Glossary!$B$46:$B$56</definedName>
+    <definedName name="date" localSheetId="0">'[5]Master Inputs Start Here'!$D$12</definedName>
     <definedName name="date">'[6]Master Inputs Start Here'!$D$12</definedName>
     <definedName name="ddd">#REF!</definedName>
     <definedName name="dfg" hidden="1">#REF!</definedName>
@@ -96,14 +88,14 @@
     <definedName name="dol">#REF!</definedName>
     <definedName name="dolt" localSheetId="0">#REF!</definedName>
     <definedName name="dolt">#REF!</definedName>
-    <definedName name="Doors">[5]Glossary!$B$112:$B$117</definedName>
+    <definedName name="Doors">[4]Glossary!$B$112:$B$117</definedName>
     <definedName name="DOR" localSheetId="0">#REF!</definedName>
     <definedName name="DOR">#REF!</definedName>
     <definedName name="dt">#REF!</definedName>
-    <definedName name="Finising">[5]Glossary!$B$119:$B$128</definedName>
+    <definedName name="Finising">[4]Glossary!$B$119:$B$128</definedName>
     <definedName name="FKdisk">"Диагр. 2"</definedName>
-    <definedName name="Floors">[5]Glossary!$B$93:$B$103</definedName>
-    <definedName name="Foundations">[5]Glossary!$B$2:$B$10</definedName>
+    <definedName name="Floors">[4]Glossary!$B$93:$B$103</definedName>
+    <definedName name="Foundations">[4]Glossary!$B$2:$B$10</definedName>
     <definedName name="gh" localSheetId="0" hidden="1">{"glc1",#N/A,FALSE,"GLC";"glc2",#N/A,FALSE,"GLC";"glc3",#N/A,FALSE,"GLC";"glc4",#N/A,FALSE,"GLC";"glc5",#N/A,FALSE,"GLC"}</definedName>
     <definedName name="gh" hidden="1">{"glc1",#N/A,FALSE,"GLC";"glc2",#N/A,FALSE,"GLC";"glc3",#N/A,FALSE,"GLC";"glc4",#N/A,FALSE,"GLC";"glc5",#N/A,FALSE,"GLC"}</definedName>
     <definedName name="I" localSheetId="0">#REF!</definedName>
@@ -135,31 +127,31 @@
     <definedName name="KIM">#REF!</definedName>
     <definedName name="KIMM" localSheetId="0">#REF!</definedName>
     <definedName name="KIMM">#REF!</definedName>
-    <definedName name="m1_0">[10]Смета!#REF!</definedName>
-    <definedName name="m1_1">[10]Смета!#REF!</definedName>
-    <definedName name="m10_0">[10]Смета!#REF!</definedName>
-    <definedName name="m10_1">[10]Смета!#REF!</definedName>
-    <definedName name="m11_0">[10]Смета!#REF!</definedName>
-    <definedName name="m11_1">[10]Смета!#REF!</definedName>
-    <definedName name="m12_0">[10]Смета!#REF!</definedName>
-    <definedName name="m12_1">[10]Смета!#REF!</definedName>
-    <definedName name="m2_0">[10]Смета!#REF!</definedName>
-    <definedName name="m2_1">[10]Смета!#REF!</definedName>
-    <definedName name="m3_0">[10]Смета!#REF!</definedName>
-    <definedName name="m3_1">[10]Смета!#REF!</definedName>
-    <definedName name="m4_0">[10]Смета!#REF!</definedName>
-    <definedName name="m4_1">[10]Смета!#REF!</definedName>
-    <definedName name="m5_0">[10]Смета!#REF!</definedName>
-    <definedName name="m5_1">[10]Смета!#REF!</definedName>
-    <definedName name="m6_0">[10]Смета!#REF!</definedName>
-    <definedName name="m6_1">[10]Смета!#REF!</definedName>
-    <definedName name="m7_0">[10]Смета!#REF!</definedName>
-    <definedName name="m7_1">[10]Смета!#REF!</definedName>
-    <definedName name="m8_0">[10]Смета!#REF!</definedName>
-    <definedName name="m8_1">[10]Смета!#REF!</definedName>
-    <definedName name="m9_0">[10]Смета!#REF!</definedName>
-    <definedName name="m9_1">[10]Смета!#REF!</definedName>
-    <definedName name="name" localSheetId="0">'[37]Master Inputs Start Here'!$D$10</definedName>
+    <definedName name="m1_0">[7]Смета!#REF!</definedName>
+    <definedName name="m1_1">[7]Смета!#REF!</definedName>
+    <definedName name="m10_0">[7]Смета!#REF!</definedName>
+    <definedName name="m10_1">[7]Смета!#REF!</definedName>
+    <definedName name="m11_0">[7]Смета!#REF!</definedName>
+    <definedName name="m11_1">[7]Смета!#REF!</definedName>
+    <definedName name="m12_0">[7]Смета!#REF!</definedName>
+    <definedName name="m12_1">[7]Смета!#REF!</definedName>
+    <definedName name="m2_0">[7]Смета!#REF!</definedName>
+    <definedName name="m2_1">[7]Смета!#REF!</definedName>
+    <definedName name="m3_0">[7]Смета!#REF!</definedName>
+    <definedName name="m3_1">[7]Смета!#REF!</definedName>
+    <definedName name="m4_0">[7]Смета!#REF!</definedName>
+    <definedName name="m4_1">[7]Смета!#REF!</definedName>
+    <definedName name="m5_0">[7]Смета!#REF!</definedName>
+    <definedName name="m5_1">[7]Смета!#REF!</definedName>
+    <definedName name="m6_0">[7]Смета!#REF!</definedName>
+    <definedName name="m6_1">[7]Смета!#REF!</definedName>
+    <definedName name="m7_0">[7]Смета!#REF!</definedName>
+    <definedName name="m7_1">[7]Смета!#REF!</definedName>
+    <definedName name="m8_0">[7]Смета!#REF!</definedName>
+    <definedName name="m8_1">[7]Смета!#REF!</definedName>
+    <definedName name="m9_0">[7]Смета!#REF!</definedName>
+    <definedName name="m9_1">[7]Смета!#REF!</definedName>
+    <definedName name="name" localSheetId="0">'[5]Master Inputs Start Here'!$D$10</definedName>
     <definedName name="name">'[6]Master Inputs Start Here'!$D$10</definedName>
     <definedName name="NDS" localSheetId="0">#REF!</definedName>
     <definedName name="NDS">#REF!</definedName>
@@ -168,18 +160,18 @@
     <definedName name="No.13">#REF!</definedName>
     <definedName name="No.14">#REF!</definedName>
     <definedName name="No.15">#REF!</definedName>
-    <definedName name="No.22" localSheetId="0">'[37]HBS initial'!#REF!</definedName>
+    <definedName name="No.22" localSheetId="0">'[5]HBS initial'!#REF!</definedName>
     <definedName name="No.22">'[6]HBS initial'!#REF!</definedName>
     <definedName name="NPR" localSheetId="0">#REF!</definedName>
     <definedName name="NPR">#REF!</definedName>
     <definedName name="NR" localSheetId="0">#REF!</definedName>
     <definedName name="NR">#REF!</definedName>
     <definedName name="PAC_MEC">#N/A</definedName>
-    <definedName name="Partitions">[5]Glossary!$B$35:$B$44</definedName>
-    <definedName name="Pavement">[5]Glossary!$B$142:$B$157</definedName>
-    <definedName name="Peaks">[5]Glossary!$B$66:$B$71</definedName>
-    <definedName name="Pillars">[5]Glossary!$B$27:$B$33</definedName>
-    <definedName name="Plumbing">[5]Glossary!$B$130:$B$140</definedName>
+    <definedName name="Partitions">[4]Glossary!$B$35:$B$44</definedName>
+    <definedName name="Pavement">[4]Glossary!$B$142:$B$157</definedName>
+    <definedName name="Peaks">[4]Glossary!$B$66:$B$71</definedName>
+    <definedName name="Pillars">[4]Glossary!$B$27:$B$33</definedName>
+    <definedName name="Plumbing">[4]Glossary!$B$130:$B$140</definedName>
     <definedName name="PN" localSheetId="0">#REF!</definedName>
     <definedName name="PN">#REF!</definedName>
     <definedName name="PR" localSheetId="0">#REF!</definedName>
@@ -195,13 +187,13 @@
     <definedName name="PRZ">#REF!</definedName>
     <definedName name="PSR" localSheetId="0">#REF!</definedName>
     <definedName name="PSR">#REF!</definedName>
-    <definedName name="rasr">[12]разряд!$A$1:$B$53</definedName>
+    <definedName name="rasr">[8]разряд!$A$1:$B$53</definedName>
     <definedName name="RGd">"Диагр. 5"</definedName>
-    <definedName name="Roofing">[5]Glossary!$B$81:$B$91</definedName>
-    <definedName name="Roofs">[5]Glossary!$B$73:$B$79</definedName>
+    <definedName name="Roofing">[4]Glossary!$B$81:$B$91</definedName>
+    <definedName name="Roofs">[4]Glossary!$B$73:$B$79</definedName>
     <definedName name="ST" localSheetId="0">#REF!</definedName>
     <definedName name="ST">#REF!</definedName>
-    <definedName name="Stairs">[5]Glossary!$B$58:$B$64</definedName>
+    <definedName name="Stairs">[4]Glossary!$B$58:$B$64</definedName>
     <definedName name="stoim_gar">#REF!</definedName>
     <definedName name="stoim_gar1">#REF!</definedName>
     <definedName name="TSR" localSheetId="0">#REF!</definedName>
@@ -210,13 +202,13 @@
     <definedName name="UD">#REF!</definedName>
     <definedName name="UGP" localSheetId="0">#REF!</definedName>
     <definedName name="UGP">#REF!</definedName>
-    <definedName name="usd">[13]общий!$E$3</definedName>
+    <definedName name="usd">[9]общий!$E$3</definedName>
     <definedName name="VR" localSheetId="0">#REF!</definedName>
     <definedName name="VR">#REF!</definedName>
-    <definedName name="Walls">[5]Glossary!$B$12:$B$25</definedName>
+    <definedName name="Walls">[4]Glossary!$B$12:$B$25</definedName>
     <definedName name="wert" localSheetId="0" hidden="1">{"glc1",#N/A,FALSE,"GLC";"glc2",#N/A,FALSE,"GLC";"glc3",#N/A,FALSE,"GLC";"glc4",#N/A,FALSE,"GLC";"glc5",#N/A,FALSE,"GLC"}</definedName>
     <definedName name="wert" hidden="1">{"glc1",#N/A,FALSE,"GLC";"glc2",#N/A,FALSE,"GLC";"glc3",#N/A,FALSE,"GLC";"glc4",#N/A,FALSE,"GLC";"glc5",#N/A,FALSE,"GLC"}</definedName>
-    <definedName name="Windows">[5]Glossary!$B$105:$B$110</definedName>
+    <definedName name="Windows">[4]Glossary!$B$105:$B$110</definedName>
     <definedName name="wrn" localSheetId="0" hidden="1">{"glc1",#N/A,FALSE,"GLC";"glc2",#N/A,FALSE,"GLC";"glc3",#N/A,FALSE,"GLC";"glc4",#N/A,FALSE,"GLC";"glc5",#N/A,FALSE,"GLC"}</definedName>
     <definedName name="wrn" hidden="1">{"glc1",#N/A,FALSE,"GLC";"glc2",#N/A,FALSE,"GLC";"glc3",#N/A,FALSE,"GLC";"glc4",#N/A,FALSE,"GLC";"glc5",#N/A,FALSE,"GLC"}</definedName>
     <definedName name="wrn.Aging._.and._.Trend._.Analysis." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Aging Summary";#N/A,#N/A,FALSE,"Ratio Analysis";#N/A,#N/A,FALSE,"Test 120 Day Accts";#N/A,#N/A,FALSE,"Tickmarks"}</definedName>
@@ -235,8 +227,8 @@
     <definedName name="wrn.print." hidden="1">{"toc",#N/A,FALSE,"TOC";"summ",#N/A,FALSE,"summ";"histbs1",#N/A,FALSE,"histBS";"histbs2",#N/A,FALSE,"histBS";"histis",#N/A,FALSE,"histIS";"ratios",#N/A,FALSE,"ratios";"foris",#N/A,FALSE,"forIS";"forbs1",#N/A,FALSE,"forBS";"forbs2",#N/A,FALSE,"forBS";"cf",#N/A,FALSE,"CF";"wc",#N/A,FALSE,"wc";"own.str",#N/A,FALSE,"own.str";"fcf",#N/A,FALSE,"FCF";"wacc",#N/A,FALSE,"wacc";"r(f)",#N/A,FALSE,"r(f)";"glc",#N/A,FALSE,"GLC";"glcbs",#N/A,FALSE,"glcBS";"glccsbs",#N/A,FALSE,"glcCSBS";"glcis",#N/A,FALSE,"glcIS";"glccsis",#N/A,FALSE,"glcCSIS";"glcrat1",#N/A,FALSE,"glcrat1";"glcrat2",#N/A,FALSE,"glcrat2";"norm",#N/A,FALSE,"norm";"control",#N/A,FALSE,"control"}</definedName>
     <definedName name="ZIM" localSheetId="0">#REF!</definedName>
     <definedName name="ZIM">#REF!</definedName>
-    <definedName name="авы">'[15]1'!$K$1</definedName>
-    <definedName name="ар">'[16]исход-итог'!$C$2</definedName>
+    <definedName name="авы">'[10]1'!$K$1</definedName>
+    <definedName name="ар">'[11]исход-итог'!$C$2</definedName>
     <definedName name="ар3" localSheetId="0" hidden="1">{"assets",#N/A,FALSE,"historicBS";"liab",#N/A,FALSE,"historicBS";"is",#N/A,FALSE,"historicIS";"ratios",#N/A,FALSE,"ratios"}</definedName>
     <definedName name="ар3" hidden="1">{"assets",#N/A,FALSE,"historicBS";"liab",#N/A,FALSE,"historicBS";"is",#N/A,FALSE,"historicIS";"ratios",#N/A,FALSE,"ratios"}</definedName>
     <definedName name="аренда2">#REF!</definedName>
@@ -244,24 +236,24 @@
     <definedName name="ариври">#REF!</definedName>
     <definedName name="арт">#REF!</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
-    <definedName name="Бал">[17]Параметры!$C$5</definedName>
-    <definedName name="БалКК">[18]ЛитБ!$G$351</definedName>
+    <definedName name="Бал">[12]Параметры!$C$5</definedName>
+    <definedName name="БалКК">[13]ЛитБ!$G$351</definedName>
     <definedName name="вввввввв" localSheetId="0" hidden="1">{"toc",#N/A,FALSE,"TOC";"summ",#N/A,FALSE,"summ";"histbs1",#N/A,FALSE,"histBS";"histbs2",#N/A,FALSE,"histBS";"histis",#N/A,FALSE,"histIS";"ratios",#N/A,FALSE,"ratios";"foris",#N/A,FALSE,"forIS";"forbs1",#N/A,FALSE,"forBS";"forbs2",#N/A,FALSE,"forBS";"cf",#N/A,FALSE,"CF";"wc",#N/A,FALSE,"wc";"own.str",#N/A,FALSE,"own.str";"fcf",#N/A,FALSE,"FCF";"wacc",#N/A,FALSE,"wacc";"r(f)",#N/A,FALSE,"r(f)";"glc",#N/A,FALSE,"GLC";"glcbs",#N/A,FALSE,"glcBS";"glccsbs",#N/A,FALSE,"glcCSBS";"glcis",#N/A,FALSE,"glcIS";"glccsis",#N/A,FALSE,"glcCSIS";"glcrat1",#N/A,FALSE,"glcrat1";"glcrat2",#N/A,FALSE,"glcrat2";"norm",#N/A,FALSE,"norm";"control",#N/A,FALSE,"control"}</definedName>
     <definedName name="вввввввв" hidden="1">{"toc",#N/A,FALSE,"TOC";"summ",#N/A,FALSE,"summ";"histbs1",#N/A,FALSE,"histBS";"histbs2",#N/A,FALSE,"histBS";"histis",#N/A,FALSE,"histIS";"ratios",#N/A,FALSE,"ratios";"foris",#N/A,FALSE,"forIS";"forbs1",#N/A,FALSE,"forBS";"forbs2",#N/A,FALSE,"forBS";"cf",#N/A,FALSE,"CF";"wc",#N/A,FALSE,"wc";"own.str",#N/A,FALSE,"own.str";"fcf",#N/A,FALSE,"FCF";"wacc",#N/A,FALSE,"wacc";"r(f)",#N/A,FALSE,"r(f)";"glc",#N/A,FALSE,"GLC";"glcbs",#N/A,FALSE,"glcBS";"glccsbs",#N/A,FALSE,"glcCSBS";"glcis",#N/A,FALSE,"glcIS";"glccsis",#N/A,FALSE,"glcCSIS";"glcrat1",#N/A,FALSE,"glcrat1";"glcrat2",#N/A,FALSE,"glcrat2";"norm",#N/A,FALSE,"norm";"control",#N/A,FALSE,"control"}</definedName>
     <definedName name="вп">#REF!</definedName>
     <definedName name="вс" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Aging Summary";#N/A,#N/A,FALSE,"Ratio Analysis";#N/A,#N/A,FALSE,"Test 120 Day Accts";#N/A,#N/A,FALSE,"Tickmarks"}</definedName>
     <definedName name="вс" hidden="1">{#N/A,#N/A,FALSE,"Aging Summary";#N/A,#N/A,FALSE,"Ratio Analysis";#N/A,#N/A,FALSE,"Test 120 Day Accts";#N/A,#N/A,FALSE,"Tickmarks"}</definedName>
-    <definedName name="год">[20]свед!$B$2</definedName>
-    <definedName name="д">'[21]общие сведения'!$B$7</definedName>
+    <definedName name="год">[14]свед!$B$2</definedName>
+    <definedName name="д">'[15]общие сведения'!$B$7</definedName>
     <definedName name="ДБ">#REF!</definedName>
     <definedName name="дис">#REF!</definedName>
-    <definedName name="дис1">[14]свед!$B$14</definedName>
-    <definedName name="долл">'[16]исход-итог'!$C$2</definedName>
-    <definedName name="долл1">'[21]общие сведения'!$B$7</definedName>
-    <definedName name="Доллар">[18]Исходные!$B$12</definedName>
-    <definedName name="доллар1">[22]общее!$H$2</definedName>
-    <definedName name="доллар2">[22]общее!$H$2</definedName>
-    <definedName name="дор">[14]свед!$B$14</definedName>
+    <definedName name="дис1">[1]свед!$B$14</definedName>
+    <definedName name="долл">'[11]исход-итог'!$C$2</definedName>
+    <definedName name="долл1">'[15]общие сведения'!$B$7</definedName>
+    <definedName name="Доллар">[13]Исходные!$B$12</definedName>
+    <definedName name="доллар1">[16]общее!$H$2</definedName>
+    <definedName name="доллар2">[16]общее!$H$2</definedName>
+    <definedName name="дор">[1]свед!$B$14</definedName>
     <definedName name="дос">#REF!</definedName>
     <definedName name="дох">#REF!</definedName>
     <definedName name="дшщ">#REF!</definedName>
@@ -271,12 +263,12 @@
     <definedName name="затраты">#REF!</definedName>
     <definedName name="затраты_труда" localSheetId="0">#REF!</definedName>
     <definedName name="затраты_труда">#REF!</definedName>
-    <definedName name="Затрнов">'[21]общие сведения'!$B$7</definedName>
+    <definedName name="Затрнов">'[15]общие сведения'!$B$7</definedName>
     <definedName name="ззд" localSheetId="0">#REF!</definedName>
     <definedName name="ззд">#REF!</definedName>
-    <definedName name="инд">[24]график01.09.02!$D$3</definedName>
-    <definedName name="индекс">'[25]график строительства'!$D$3</definedName>
-    <definedName name="Индекс_стоимости">[26]Служебный!$J$18</definedName>
+    <definedName name="инд">[17]график01.09.02!$D$3</definedName>
+    <definedName name="индекс">'[18]график строительства'!$D$3</definedName>
+    <definedName name="Индекс_стоимости">[19]Служебный!$J$18</definedName>
     <definedName name="исх">#REF!</definedName>
     <definedName name="й">#REF!</definedName>
     <definedName name="йег" localSheetId="0">#REF!</definedName>
@@ -286,14 +278,14 @@
     <definedName name="ке" localSheetId="0">#REF!</definedName>
     <definedName name="ке">#REF!</definedName>
     <definedName name="КИС1">#REF!</definedName>
-    <definedName name="кор">'[14]общие сведения'!$B$14</definedName>
-    <definedName name="кс80м">'[27]общие данные'!$J$3</definedName>
+    <definedName name="кор">'[1]общие сведения'!$B$14</definedName>
+    <definedName name="кс80м">'[20]общие данные'!$J$3</definedName>
     <definedName name="ку" localSheetId="0">#REF!</definedName>
     <definedName name="ку">#REF!</definedName>
-    <definedName name="Курс">[28]Содержание!$J$15</definedName>
+    <definedName name="Курс">[21]Содержание!$J$15</definedName>
     <definedName name="куц" localSheetId="0">#REF!</definedName>
     <definedName name="куц">#REF!</definedName>
-    <definedName name="ллл">'[16]исход-итог'!$C$2</definedName>
+    <definedName name="ллл">'[11]исход-итог'!$C$2</definedName>
     <definedName name="лоир">#REF!</definedName>
     <definedName name="м" localSheetId="0">#REF!</definedName>
     <definedName name="м">#REF!</definedName>
@@ -307,26 +299,26 @@
     <definedName name="пп" hidden="1">{"assets",#N/A,FALSE,"historicBS";"liab",#N/A,FALSE,"historicBS";"is",#N/A,FALSE,"historicIS";"ratios",#N/A,FALSE,"ratios"}</definedName>
     <definedName name="Пробивка_борозд_в_кирпичных_стенах_для_прокладки_трубных_подводок_сечением_борозд_40х40мм" localSheetId="0">#REF!</definedName>
     <definedName name="Пробивка_борозд_в_кирпичных_стенах_для_прокладки_трубных_подводок_сечением_борозд_40х40мм">#REF!</definedName>
-    <definedName name="Процент_себестомость">[26]Служебный!$J$7</definedName>
+    <definedName name="Процент_себестомость">[19]Служебный!$J$7</definedName>
     <definedName name="Разборка_полов_с_лагами_и_дощатым_основанием" localSheetId="0">#REF!</definedName>
     <definedName name="Разборка_полов_с_лагами_и_дощатым_основанием">#REF!</definedName>
     <definedName name="рез">#REF!</definedName>
     <definedName name="роа">#REF!</definedName>
-    <definedName name="рок">[18]ЛитБ!$G$351</definedName>
+    <definedName name="рок">[13]ЛитБ!$G$351</definedName>
     <definedName name="рпа" localSheetId="0">#REF!</definedName>
     <definedName name="рпа">#REF!</definedName>
     <definedName name="Рыночный">#REF!</definedName>
-    <definedName name="с17">[32]затр_подх!$A$16</definedName>
-    <definedName name="св">[33]восст!$L$403</definedName>
-    <definedName name="ск4">'[27]общие данные'!$F$3</definedName>
-    <definedName name="ск62">'[27]общие данные'!$G$3</definedName>
-    <definedName name="ск79">'[27]общие данные'!$H$3</definedName>
-    <definedName name="ск80б">'[27]общие данные'!$K$3</definedName>
-    <definedName name="ск80к">'[27]общие данные'!$I$3</definedName>
+    <definedName name="с17">[22]затр_подх!$A$16</definedName>
+    <definedName name="св">[23]восст!$L$403</definedName>
+    <definedName name="ск4">'[20]общие данные'!$F$3</definedName>
+    <definedName name="ск62">'[20]общие данные'!$G$3</definedName>
+    <definedName name="ск79">'[20]общие данные'!$H$3</definedName>
+    <definedName name="ск80б">'[20]общие данные'!$K$3</definedName>
+    <definedName name="ск80к">'[20]общие данные'!$I$3</definedName>
     <definedName name="скид">#REF!</definedName>
     <definedName name="Скидка">#REF!</definedName>
     <definedName name="скидка3">#REF!</definedName>
-    <definedName name="скпл">'[27]общие данные'!$L$3</definedName>
+    <definedName name="скпл">'[20]общие данные'!$L$3</definedName>
     <definedName name="сор">#REF!</definedName>
     <definedName name="строительство">#REF!</definedName>
     <definedName name="тим" localSheetId="0">#REF!</definedName>
@@ -335,19 +327,19 @@
     <definedName name="у" hidden="1">{"glc1",#N/A,FALSE,"GLC";"glc2",#N/A,FALSE,"GLC";"glc3",#N/A,FALSE,"GLC";"glc4",#N/A,FALSE,"GLC";"glc5",#N/A,FALSE,"GLC"}</definedName>
     <definedName name="угол" localSheetId="0">#REF!</definedName>
     <definedName name="угол">#REF!</definedName>
-    <definedName name="удор">[33]восст!$L$403</definedName>
+    <definedName name="удор">[23]восст!$L$403</definedName>
     <definedName name="ук" localSheetId="0">#REF!</definedName>
     <definedName name="ук">#REF!</definedName>
     <definedName name="уко" localSheetId="0">#REF!</definedName>
     <definedName name="уко">#REF!</definedName>
-    <definedName name="х">[18]ЛитБ!$G$351</definedName>
-    <definedName name="ценакойкодня">'[34]Средняя стоимость'!#REF!</definedName>
+    <definedName name="х">[13]ЛитБ!$G$351</definedName>
+    <definedName name="ценакойкодня">'[24]Средняя стоимость'!#REF!</definedName>
     <definedName name="цу" localSheetId="0">#REF!</definedName>
     <definedName name="цу">#REF!</definedName>
     <definedName name="цуе" localSheetId="0">#REF!</definedName>
     <definedName name="цуе">#REF!</definedName>
-    <definedName name="ццц" localSheetId="0">[39]Смета!#REF!</definedName>
-    <definedName name="ццц">[35]Смета!#REF!</definedName>
+    <definedName name="ццц" localSheetId="0">[25]Смета!#REF!</definedName>
+    <definedName name="ццц">[26]Смета!#REF!</definedName>
     <definedName name="шг">#REF!</definedName>
     <definedName name="шщ" localSheetId="0">#REF!</definedName>
     <definedName name="шщ">#REF!</definedName>
@@ -358,7 +350,7 @@
     <definedName name="электроинструмент">#REF!</definedName>
     <definedName name="ээ">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -368,7 +360,7 @@
     <author>N.V.Braila</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0">
+    <comment ref="F13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -481,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0">
+    <comment ref="G15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -507,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0">
+    <comment ref="F18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -534,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0">
+    <comment ref="G19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0">
+    <comment ref="F21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -613,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="G22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -752,7 +744,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="13">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
@@ -1187,12 +1179,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1228,26 +1214,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1255,21 +1223,45 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -1320,6 +1312,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1748,751 +1743,15 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Исход"/>
-      <sheetName val="Общ"/>
-      <sheetName val="Инвестиции"/>
-      <sheetName val="График Стр-ва"/>
-      <sheetName val="Индексы"/>
-      <sheetName val="строит (ИТОГО)"/>
-      <sheetName val="График реализации"/>
-      <sheetName val="стоимость квартир, м.-мест, ком"/>
-      <sheetName val="Весь проект"/>
-      <sheetName val="кредит"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8">
-        <row r="84">
-          <cell r="C84">
-            <v>-804092130.70205998</v>
-          </cell>
-          <cell r="D84">
-            <v>-57344539.568580002</v>
-          </cell>
-          <cell r="E84">
-            <v>-57785512.155011989</v>
-          </cell>
-          <cell r="F84">
-            <v>-58281606.314747982</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Затратный"/>
-      <sheetName val="Динамика затрат"/>
-      <sheetName val="Выручка"/>
-      <sheetName val="Доходы"/>
-      <sheetName val="Итог"/>
-      <sheetName val="Смета"/>
-      <sheetName val="Индексы"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Площади"/>
-      <sheetName val="дисконт"/>
-      <sheetName val="резерв на зам"/>
-      <sheetName val="ННЭИ-5 земля_в отчет"/>
-      <sheetName val="НИ 5 земля "/>
-      <sheetName val="ННЭИ-5 земля (2)"/>
-      <sheetName val="НИ 5 земля  (2)"/>
-      <sheetName val="ННЭИ 2вар"/>
-      <sheetName val="НИ 2вар"/>
-      <sheetName val="Ар. ставка-офисы"/>
-      <sheetName val="ДП мах вероятн"/>
-      <sheetName val="НИ"/>
-      <sheetName val="торговля 1"/>
-      <sheetName val="торговля 2"/>
-      <sheetName val="офисы (2)"/>
-      <sheetName val="сравнительный (2)"/>
-      <sheetName val="Сведение"/>
-      <sheetName val="скидка  "/>
-      <sheetName val="#REF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="итог"/>
-      <sheetName val="гараж_объем "/>
-      <sheetName val="гараж_прс"/>
-      <sheetName val="прист гар(а)_объем"/>
-      <sheetName val="прист гар(а)_прс"/>
-      <sheetName val="х-б прист гар_объем"/>
-      <sheetName val="х-б прист гар_прс"/>
-      <sheetName val="тракторный цех_объем"/>
-      <sheetName val="тракторный цех_прс"/>
-      <sheetName val="матер склад_объем"/>
-      <sheetName val="матер_склад_прс"/>
-      <sheetName val="электроцех_объем"/>
-      <sheetName val="электроцех_прс"/>
-      <sheetName val="управа_объем"/>
-      <sheetName val="управа_прс"/>
-      <sheetName val="цех затар_объем"/>
-      <sheetName val="цех затар_прс"/>
-      <sheetName val="магазин со скл_объем"/>
-      <sheetName val="магазин со скл_прс"/>
-      <sheetName val="стоимость_маш"/>
-      <sheetName val="стоимость_мат"/>
-      <sheetName val="разряд"/>
-      <sheetName val="свед"/>
       <sheetName val="общие сведения"/>
-      <sheetName val="исход-итог"/>
-      <sheetName val="Rent Assumptions"/>
-      <sheetName val="Потоки"/>
-      <sheetName val="общий"/>
-      <sheetName val="таб_1"/>
-      <sheetName val="Brif_zdanie"/>
-      <sheetName val="Выписка_РФИ"/>
-      <sheetName val="Имущество_элементы"/>
-      <sheetName val="Параметры"/>
-      <sheetName val="восст"/>
-      <sheetName val="Selling data"/>
-      <sheetName val="Print Calc"/>
-      <sheetName val="корр-ка на S аренда2"/>
-      <sheetName val="Glossary"/>
-      <sheetName val="Земля"/>
-      <sheetName val="InputTI"/>
-      <sheetName val="БДР"/>
-      <sheetName val="БДР план"/>
-      <sheetName val="Balance Sheet"/>
-      <sheetName val="Income Statement"/>
-      <sheetName val="затр_подх"/>
-      <sheetName val="Капвложения"/>
-      <sheetName val="общие данные"/>
-      <sheetName val="расч_прс_ирлен"/>
-      <sheetName val="Метод остатка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21" refreshError="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>разряд</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>стоим</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>м</v>
-          </cell>
-          <cell r="B2">
-            <v>11.4</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1</v>
-          </cell>
-          <cell r="B3">
-            <v>7.37</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="B4">
-            <v>7.42</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1.2000000000000002</v>
-          </cell>
-          <cell r="B5">
-            <v>7.48</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1.3000000000000003</v>
-          </cell>
-          <cell r="B6">
-            <v>7.55</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1.4000000000000004</v>
-          </cell>
-          <cell r="B7">
-            <v>7.61</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1.5000000000000004</v>
-          </cell>
-          <cell r="B8">
-            <v>7.67</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1.6000000000000005</v>
-          </cell>
-          <cell r="B9">
-            <v>7.74</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1.7000000000000006</v>
-          </cell>
-          <cell r="B10">
-            <v>7.8</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1.8000000000000007</v>
-          </cell>
-          <cell r="B11">
-            <v>7.86</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1.9000000000000008</v>
-          </cell>
-          <cell r="B12">
-            <v>7.92</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>2.0000000000000009</v>
-          </cell>
-          <cell r="B13">
-            <v>7.99</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>2.100000000000001</v>
-          </cell>
-          <cell r="B14">
-            <v>8.0500000000000007</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>2.2000000000000011</v>
-          </cell>
-          <cell r="B15">
-            <v>8.1300000000000008</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>2.3000000000000012</v>
-          </cell>
-          <cell r="B16">
-            <v>8.2100000000000009</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>2.4000000000000012</v>
-          </cell>
-          <cell r="B17">
-            <v>8.2799999999999994</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>2.5000000000000013</v>
-          </cell>
-          <cell r="B18">
-            <v>8.36</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>2.6000000000000014</v>
-          </cell>
-          <cell r="B19">
-            <v>8.44</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>2.7000000000000015</v>
-          </cell>
-          <cell r="B20">
-            <v>8.51</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>2.8000000000000016</v>
-          </cell>
-          <cell r="B21">
-            <v>8.59</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>2.9000000000000017</v>
-          </cell>
-          <cell r="B22">
-            <v>8.66</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>3.0000000000000018</v>
-          </cell>
-          <cell r="B23">
-            <v>8.74</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>3.1000000000000019</v>
-          </cell>
-          <cell r="B24">
-            <v>8.84</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>3.200000000000002</v>
-          </cell>
-          <cell r="B25">
-            <v>8.9600000000000009</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>3.300000000000002</v>
-          </cell>
-          <cell r="B26">
-            <v>9.07</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>3.4000000000000021</v>
-          </cell>
-          <cell r="B27">
-            <v>9.19</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>3.5000000000000022</v>
-          </cell>
-          <cell r="B28">
-            <v>9.3000000000000007</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>3.6000000000000023</v>
-          </cell>
-          <cell r="B29">
-            <v>9.41</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>3.7000000000000024</v>
-          </cell>
-          <cell r="B30">
-            <v>9.52</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>3.8000000000000025</v>
-          </cell>
-          <cell r="B31">
-            <v>9.6300000000000008</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>3.9000000000000026</v>
-          </cell>
-          <cell r="B32">
-            <v>9.75</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>4.0000000000000027</v>
-          </cell>
-          <cell r="B33">
-            <v>9.86</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>4.1000000000000023</v>
-          </cell>
-          <cell r="B34">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>4.200000000000002</v>
-          </cell>
-          <cell r="B35">
-            <v>10.199999999999999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>4.3000000000000016</v>
-          </cell>
-          <cell r="B36">
-            <v>10.3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>4.4000000000000012</v>
-          </cell>
-          <cell r="B37">
-            <v>10.5</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>4.5000000000000009</v>
-          </cell>
-          <cell r="B38">
-            <v>10.6</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>4.6000000000000005</v>
-          </cell>
-          <cell r="B39">
-            <v>10.8</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>4.7</v>
-          </cell>
-          <cell r="B40">
-            <v>10.9</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>4.8</v>
-          </cell>
-          <cell r="B41">
-            <v>11.1</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>4.8999999999999995</v>
-          </cell>
-          <cell r="B42">
-            <v>11.2</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>4.9999999999999991</v>
-          </cell>
-          <cell r="B43">
-            <v>11.4</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>5.0999999999999988</v>
-          </cell>
-          <cell r="B44">
-            <v>11.5</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>5.1999999999999984</v>
-          </cell>
-          <cell r="B45">
-            <v>11.7</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>5.299999999999998</v>
-          </cell>
-          <cell r="B46">
-            <v>11.9</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>5.3999999999999977</v>
-          </cell>
-          <cell r="B47">
-            <v>12.1</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>5.4999999999999973</v>
-          </cell>
-          <cell r="B48">
-            <v>12.3</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>5.599999999999997</v>
-          </cell>
-          <cell r="B49">
-            <v>12.5</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>5.6999999999999966</v>
-          </cell>
-          <cell r="B50">
-            <v>12.7</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>5.7999999999999963</v>
-          </cell>
-          <cell r="B51">
-            <v>12.9</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>5.8999999999999959</v>
-          </cell>
-          <cell r="B52">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>5.9999999999999956</v>
-          </cell>
-          <cell r="B53">
-            <v>13.2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="общий"/>
-      <sheetName val="ремонт"/>
-      <sheetName val="восст"/>
-      <sheetName val="предпринимат"/>
-      <sheetName val="Затр подх"/>
-      <sheetName val="Сведение"/>
-      <sheetName val="рыночный"/>
-      <sheetName val="расчет ставки дисконта"/>
-      <sheetName val="ДП пессимест"/>
-      <sheetName val="ДП обычный"/>
-      <sheetName val="ДП оптимист"/>
-      <sheetName val="НИ 1"/>
-      <sheetName val="НИ 2"/>
-      <sheetName val="НИ 3 "/>
-      <sheetName val="Излож-е"/>
-      <sheetName val="Изложение"/>
-      <sheetName val="Общие"/>
-      <sheetName val="ТЭП проекта"/>
-      <sheetName val="Интерн"/>
-      <sheetName val="Сводка затрат"/>
-      <sheetName val="Верт планиров"/>
-      <sheetName val="Инж подготовка"/>
-      <sheetName val="Дороги_площ_озелен"/>
-      <sheetName val="Фунд_каркас_перекр"/>
-      <sheetName val="Фунд"/>
-      <sheetName val="Строит_компл"/>
-      <sheetName val="Котельная"/>
-      <sheetName val="ТП_строит"/>
-      <sheetName val="Демонтаж"/>
-      <sheetName val="баланс площ"/>
-      <sheetName val="ЗУ_дох по Гриб (отчет)"/>
-      <sheetName val="Сравнительный (4)"/>
-      <sheetName val="Сравнительный (по нагр_коммер)"/>
-      <sheetName val="аналоги ГУИОНа"/>
-      <sheetName val="Сравнительный по ЗУ"/>
-      <sheetName val="Сравнительный (по нагр_комм (2)"/>
-      <sheetName val="Сравнительный (по нагр_общ)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="3">
-          <cell r="E3">
-            <v>27.77</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
+      <sheetName val="Лист3"/>
+      <sheetName val="ликвид скидка"/>
+      <sheetName val="сводка"/>
+      <sheetName val="внешний износ"/>
+      <sheetName val="функцмональный износ"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="физический износ"/>
+      <sheetName val="диагр износа"/>
       <sheetName val="свед"/>
       <sheetName val="Баланс "/>
       <sheetName val="Графики"/>
@@ -2503,41 +1762,32 @@
       <sheetName val="МДДП"/>
       <sheetName val="Дебиторы"/>
       <sheetName val="Сведение"/>
-      <sheetName val="общие сведения"/>
-      <sheetName val="Лист3"/>
-      <sheetName val="ликвид скидка"/>
-      <sheetName val="сводка"/>
-      <sheetName val="внешний износ"/>
-      <sheetName val="функцмональный износ"/>
-      <sheetName val="Лист1"/>
-      <sheetName val="физический износ"/>
-      <sheetName val="диагр износа"/>
-      <sheetName val="восст"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Параметры"/>
+      <sheetName val="Служебный"/>
       <sheetName val="проч ОС"/>
-      <sheetName val="Служебный"/>
-      <sheetName val="ЛитБ"/>
-      <sheetName val="Исходные"/>
+      <sheetName val="общее"/>
       <sheetName val="Опции"/>
       <sheetName val="Проект"/>
       <sheetName val="Компания"/>
       <sheetName val="Анализ"/>
       <sheetName val="Сумм"/>
-      <sheetName val="общее"/>
+      <sheetName val="восст"/>
+      <sheetName val="Осн_данные"/>
+      <sheetName val="ЛитБ"/>
+      <sheetName val="Исходные"/>
+      <sheetName val="Параметры"/>
+      <sheetName val="Метод остатка"/>
+      <sheetName val="Sheet2"/>
       <sheetName val="Спис_Объекты_недв"/>
-      <sheetName val="Осн_данные"/>
       <sheetName val="общий"/>
-      <sheetName val="Метод остатка"/>
-      <sheetName val="выр"/>
-      <sheetName val="Comp1"/>
-      <sheetName val="аренда торговля"/>
       <sheetName val="исходник"/>
       <sheetName val="износ"/>
       <sheetName val="исход-итог"/>
       <sheetName val="Потоки"/>
+      <sheetName val="АРЕНДА лот 5"/>
       <sheetName val="затр_подх"/>
-      <sheetName val="АРЕНДА лот 5"/>
+      <sheetName val="выр"/>
+      <sheetName val="Comp1"/>
+      <sheetName val="аренда торговля"/>
       <sheetName val="comps"/>
       <sheetName val="константы"/>
       <sheetName val="данные"/>
@@ -2549,6 +1799,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1">
+        <row r="6">
+          <cell r="B6">
+            <v>28.6</v>
+          </cell>
+        </row>
         <row r="14">
           <cell r="B14">
             <v>0.3</v>
@@ -2563,8 +1818,7 @@
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1">
+      <sheetData sheetId="9" refreshError="1">
         <row r="6">
           <cell r="B6">
             <v>28.6</v>
@@ -2576,6 +1830,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11" refreshError="1"/>
       <sheetData sheetId="12" refreshError="1"/>
       <sheetData sheetId="13" refreshError="1"/>
@@ -2623,7 +1878,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2637,17 +1892,17 @@
       <sheetName val="2"/>
       <sheetName val="1"/>
       <sheetName val="Сведение"/>
-      <sheetName val="общие данные"/>
-      <sheetName val="исход-итог"/>
       <sheetName val="затр_подх"/>
       <sheetName val="общие сведения"/>
       <sheetName val="Исходные данные"/>
-      <sheetName val="исход_итог"/>
+      <sheetName val="исход-итог"/>
+      <sheetName val="Метод остатка"/>
+      <sheetName val="общие данные"/>
       <sheetName val="Док+Исх"/>
-      <sheetName val="Метод остатка"/>
       <sheetName val="Сводная ЛССМУ"/>
       <sheetName val="Служебный"/>
       <sheetName val="свед"/>
+      <sheetName val="исход_итог"/>
       <sheetName val="Начало"/>
       <sheetName val="Лист2"/>
       <sheetName val="общий"/>
@@ -2708,7 +1963,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2718,12 +1973,12 @@
       <sheetName val="исход-итог"/>
       <sheetName val="восст"/>
       <sheetName val="исход_итог"/>
-      <sheetName val="Параметры"/>
-      <sheetName val="свед"/>
-      <sheetName val="Начало"/>
-      <sheetName val="общие данные"/>
       <sheetName val="общие сведения"/>
       <sheetName val="Содержание"/>
+      <sheetName val="свед"/>
+      <sheetName val="Параметры"/>
+      <sheetName val="общие данные"/>
+      <sheetName val="Начало"/>
       <sheetName val="Balance Sheet"/>
       <sheetName val="Sheet2"/>
       <sheetName val="разряд"/>
@@ -2779,8 +2034,20 @@
       <sheetName val="Трансформация бу в уу(сентябрь)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2">
+            <v>28.39</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="C2">
+            <v>28.39</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3" refreshError="1">
         <row r="2">
@@ -2855,7 +2122,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2869,6 +2136,23 @@
       <sheetName val="Сведение"/>
       <sheetName val="сравнит"/>
       <sheetName val="Расчет"/>
+      <sheetName val="дом"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="именем:Сохранить книгу под имен"/>
+      <sheetName val="[Только для чтения][Международн"/>
+      <sheetName val="MAPIReadMailMAPIResolveNameMAPI"/>
+      <sheetName val="tƗƖ_x0000__x0000__x0000__x0000__x0000__x0000_точн_x0000__x0000_;_x0000__x0000__x0000__x0000__x0000_._x0000__x0000__x0000_Ǘƚ_x0000__x0000__x0000__x0000_"/>
+      <sheetName val="ст.диск"/>
+      <sheetName val=""/>
+      <sheetName val="ОСЗ"/>
+      <sheetName val="Ар  лит ЕЖИК"/>
+      <sheetName val="Ар  лит АБВД"/>
+      <sheetName val="ut_Regression_IntВывод регресси"/>
+      <sheetName val="общая на 400"/>
+      <sheetName val="artwaveOutUnprepareHeaderwaveOu"/>
+      <sheetName val="nAWNetAddConnection3W_x000d__x000d_Продожат"/>
+      <sheetName val="курс"/>
+      <sheetName val="_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xffff_翿_x0000__x0000__x0000__x0000__xffff__xffff__x0000__x0000__x0000_"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2887,12 +2171,29 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2916,22 +2217,22 @@
       <sheetName val="Площади"/>
       <sheetName val="Ар пр"/>
       <sheetName val="ДП"/>
+      <sheetName val="Параметры"/>
+      <sheetName val="общие сведения"/>
+      <sheetName val="свед"/>
       <sheetName val="исход-итог"/>
-      <sheetName val="Параметры"/>
+      <sheetName val="СПРБ - СТАРЫЙ"/>
       <sheetName val="Sheet2"/>
-      <sheetName val="свед"/>
-      <sheetName val="СПРБ - СТАРЫЙ"/>
+      <sheetName val="исх 1"/>
       <sheetName val="исход_итог"/>
-      <sheetName val="общие сведения"/>
-      <sheetName val="исх 1"/>
+      <sheetName val="Служебный"/>
+      <sheetName val="Текст"/>
+      <sheetName val="график01.09.02"/>
+      <sheetName val="1"/>
       <sheetName val="Исходные данные"/>
       <sheetName val="Средняя стоимость"/>
-      <sheetName val="Служебный"/>
-      <sheetName val="1"/>
-      <sheetName val="график01.09.02"/>
       <sheetName val="Паспорт дома В-1 "/>
       <sheetName val="затр_подх"/>
-      <sheetName val="Текст"/>
       <sheetName val="Таблица_Аренда"/>
       <sheetName val="инфо"/>
       <sheetName val="разряд"/>
@@ -2960,7 +2261,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="4">
+        <row r="351">
+          <cell r="G351">
+            <v>27.85</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7"/>
@@ -2989,8 +2296,8 @@
       <sheetData sheetId="30" refreshError="1"/>
       <sheetData sheetId="31" refreshError="1"/>
       <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34"/>
       <sheetData sheetId="35" refreshError="1"/>
       <sheetData sheetId="36" refreshError="1"/>
       <sheetData sheetId="37"/>
@@ -3007,65 +2314,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="итог"/>
-      <sheetName val="26 корпус"/>
-      <sheetName val="Долгоживущие"/>
-      <sheetName val="#REF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="GLC descr."/>
-      <sheetName val="Multiples"/>
-      <sheetName val="Histor.Finacials"/>
-      <sheetName val="#REF"/>
-      <sheetName val="CEZ_GLCs_01"/>
-      <sheetName val="#ССЫЛКА"/>
-      <sheetName val="Read me first"/>
-      <sheetName val="исходное"/>
-      <sheetName val="график строительства"/>
-      <sheetName val="акт осмотра в отчет"/>
-      <sheetName val="затр_подх"/>
-      <sheetName val="общее"/>
-      <sheetName val="Glossary"/>
-      <sheetName val="Смета"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3232,7 +2481,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3255,34 +2504,34 @@
       <sheetName val="аналоги"/>
       <sheetName val="арендная ставка"/>
       <sheetName val="свед"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="ЛитБ"/>
       <sheetName val="Исходные"/>
-      <sheetName val="исход-итог"/>
-      <sheetName val="ЛитБ"/>
-      <sheetName val="Служебный"/>
       <sheetName val="Параметры"/>
       <sheetName val="Метод остатка"/>
+      <sheetName val="общее"/>
       <sheetName val="Ставка Д"/>
+      <sheetName val="Служебный"/>
+      <sheetName val="ТЭП гостиница"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="исход-итог"/>
+      <sheetName val="const"/>
+      <sheetName val="1.ИСХ"/>
+      <sheetName val="документы Кириши"/>
       <sheetName val="график01.09.02"/>
-      <sheetName val="общее"/>
-      <sheetName val="ТЭП гостиница"/>
-      <sheetName val="const"/>
+      <sheetName val="Спис_Объекты_недв"/>
+      <sheetName val="нормы"/>
+      <sheetName val="Списки"/>
+      <sheetName val="Ку"/>
+      <sheetName val="Зоны Москвы"/>
+      <sheetName val="исход_итог"/>
       <sheetName val="графики"/>
       <sheetName val="дебкред"/>
-      <sheetName val="1.ИСХ"/>
-      <sheetName val="документы Кириши"/>
-      <sheetName val="Спис_Объекты_недв"/>
       <sheetName val="Исходные данные"/>
       <sheetName val="Средняя стоимость"/>
       <sheetName val="исход."/>
-      <sheetName val="исход_итог"/>
       <sheetName val="Титул"/>
       <sheetName val="инфо"/>
       <sheetName val="Дхд 639,3"/>
-      <sheetName val="Списки"/>
-      <sheetName val="Ку"/>
-      <sheetName val="Зоны Москвы"/>
-      <sheetName val="нормы"/>
       <sheetName val="Изменения"/>
       <sheetName val="1.14"/>
       <sheetName val="Лист1"/>
@@ -3433,7 +2682,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3456,6 +2705,60 @@
       <sheetName val="аренда для &quot;С&quot;"/>
       <sheetName val="продажи"/>
       <sheetName val="Сведение"/>
+      <sheetName val="1.ИСХ"/>
+      <sheetName val="документы Кириши"/>
+      <sheetName val="затр_подх"/>
+      <sheetName val="свед"/>
+      <sheetName val="Метод остатка"/>
+      <sheetName val="общие сведения"/>
+      <sheetName val="Ставка Д"/>
+      <sheetName val="Содержание"/>
+      <sheetName val="6.Продажа квартир"/>
+      <sheetName val="3.ЗАТРАТЫ"/>
+      <sheetName val="исход-итог"/>
+      <sheetName val="АС_Офис"/>
+      <sheetName val="Расчет"/>
+      <sheetName val="Параметры"/>
+      <sheetName val="общий"/>
+      <sheetName val="MGSN"/>
+      <sheetName val="Master Inputs Start Here"/>
+      <sheetName val="HBS initial"/>
+      <sheetName val="ОСЗ"/>
+      <sheetName val="14.ДП"/>
+      <sheetName val="1.ИСХ "/>
+      <sheetName val="Курсы"/>
+      <sheetName val="ИСХОД"/>
+      <sheetName val="СП_ЗУv1"/>
+      <sheetName val="Rev"/>
+      <sheetName val="DCF"/>
+      <sheetName val="TOC"/>
+      <sheetName val="#ССЫЛКА"/>
+      <sheetName val="2.Продажа квартир"/>
+      <sheetName val="константы"/>
+      <sheetName val="общие данные"/>
+      <sheetName val="3.ЗУ "/>
+      <sheetName val="КО-Инв шк"/>
+      <sheetName val="ПП и ИТОГ"/>
+      <sheetName val="КЛ_39 аренда"/>
+      <sheetName val="ЛитБ"/>
+      <sheetName val="d"/>
+      <sheetName val="Glossary"/>
+      <sheetName val="аналоги коттедж (2)"/>
+      <sheetName val="СРЗУ"/>
+      <sheetName val="Средняя стоимость"/>
+      <sheetName val="Док+Исх"/>
+      <sheetName val="Приложение &quot;ОС&quot;_оборуд"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Исходные"/>
+      <sheetName val="Служебный"/>
+      <sheetName val="Сравн"/>
+      <sheetName val="исх"/>
+      <sheetName val="АС В+"/>
+      <sheetName val="const"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Потоки"/>
+      <sheetName val="Дхд 639,3"/>
+      <sheetName val="Группы"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1">
@@ -3477,958 +2780,6 @@
       <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11" refreshError="1"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Допущения"/>
-      <sheetName val="Сведение"/>
-      <sheetName val="Параметры"/>
-      <sheetName val="Метод остатка"/>
-      <sheetName val="свед"/>
-      <sheetName val="общие сведения"/>
-      <sheetName val="Содержание"/>
-      <sheetName val="общее"/>
-      <sheetName val="ТЭП"/>
-      <sheetName val="Ставка Д"/>
-      <sheetName val="d"/>
-      <sheetName val="СРЗУ"/>
-      <sheetName val="аналоги коттедж (2)"/>
-      <sheetName val="ТЭП гостиница"/>
-      <sheetName val="исх 1"/>
-      <sheetName val="Служебный"/>
-      <sheetName val="затр_подх"/>
-      <sheetName val="исход-итог"/>
-      <sheetName val="рабочий"/>
-      <sheetName val="Master Inputs Start Here"/>
-      <sheetName val="HBS initial"/>
-      <sheetName val="ar"/>
-      <sheetName val="данные"/>
-      <sheetName val="ЛитБ"/>
-      <sheetName val="восст"/>
-      <sheetName val="Data"/>
-      <sheetName val="Баз предп"/>
-      <sheetName val="общие данные"/>
-      <sheetName val="Лист1"/>
-      <sheetName val="Изменения"/>
-      <sheetName val="1.10"/>
-      <sheetName val="1.14"/>
-      <sheetName val="Док+Исх"/>
-      <sheetName val="Исходные"/>
-      <sheetName val="Аренда Торговля"/>
-      <sheetName val="Аренда СТО"/>
-      <sheetName val="Glossary"/>
-      <sheetName val="Курсы"/>
-      <sheetName val="Константы"/>
-      <sheetName val="проч ОС"/>
-      <sheetName val="3.ЗАТРАТЫ"/>
-      <sheetName val="1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист4"/>
-      <sheetName val="график01.09.02"/>
-      <sheetName val="график разраб план ф (25.09.02)"/>
-      <sheetName val="график строительства (01.10.02)"/>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-      <sheetName val="график01_09_02"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="D3">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Диаграмма1"/>
-      <sheetName val="реестр операций"/>
-      <sheetName val="свод"/>
-      <sheetName val="график строительства"/>
-      <sheetName val="Срукт-ра себестоимости"/>
-      <sheetName val="Протокол"/>
-      <sheetName val="Распоряж"/>
-      <sheetName val="Лист1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="D3">
-            <v>1.3999999999999999E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Календарный план"/>
-      <sheetName val="План расходов"/>
-      <sheetName val="План поступлений"/>
-      <sheetName val="План ДДС"/>
-      <sheetName val="План финансирования"/>
-      <sheetName val="Прибыльность"/>
-      <sheetName val="Анализ чувствительности"/>
-      <sheetName val="Чувствительность (график)"/>
-      <sheetName val="План расходов (график)"/>
-      <sheetName val="Расходы  и  потупления (график)"/>
-      <sheetName val="Проданные квартиры (график)"/>
-      <sheetName val="Поступления от продаж (график)"/>
-      <sheetName val="Проданные гаражи (график)"/>
-      <sheetName val="ДДС (график)"/>
-      <sheetName val="Служебный"/>
-      <sheetName val="затр_подх"/>
-      <sheetName val="график строительства"/>
-      <sheetName val="1"/>
-      <sheetName val="свед"/>
-      <sheetName val="Метод остатка"/>
-      <sheetName val="общее"/>
-      <sheetName val="общие сведения"/>
-      <sheetName val="сведение (2)"/>
-      <sheetName val="бассейн"/>
-      <sheetName val="график01.09.02"/>
-      <sheetName val="общие данные"/>
-      <sheetName val="ЛитБ"/>
-      <sheetName val="Исходные"/>
-      <sheetName val="Параметры"/>
-      <sheetName val="СРЗУ"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="исход-итог"/>
-      <sheetName val="Glossary"/>
-      <sheetName val="Ставка Д"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="d"/>
-      <sheetName val="НФИк"/>
-      <sheetName val="Расходы"/>
-      <sheetName val=" Assumptions"/>
-      <sheetName val="Расчет тарифов и выручки"/>
-      <sheetName val="исх 1"/>
-      <sheetName val="Лист3"/>
-      <sheetName val="ar"/>
-      <sheetName val="общий"/>
-      <sheetName val="1.ИСХ"/>
-      <sheetName val="Содержание"/>
-      <sheetName val="Осн_данн"/>
-      <sheetName val="Balance Sheet"/>
-      <sheetName val="СрЗд"/>
-      <sheetName val="Index "/>
-      <sheetName val="Ключевые данные"/>
-      <sheetName val="Финпоказатели"/>
-      <sheetName val="Master Inputs Start here"/>
-      <sheetName val="Док+Исх"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1">
-        <row r="7">
-          <cell r="J7">
-            <v>0.15</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="J18">
-            <v>1.1499999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="описание"/>
-      <sheetName val="общие данные"/>
-      <sheetName val="сводка по земле"/>
-      <sheetName val="земля при пустоте"/>
-      <sheetName val="земля при капстр"/>
-      <sheetName val="земля при складах"/>
-      <sheetName val="фун износ"/>
-      <sheetName val="вн_износ"/>
-      <sheetName val="сводка по затратам"/>
-      <sheetName val="Устранимый износ"/>
-      <sheetName val="неустр из кж"/>
-      <sheetName val="неустр из дж"/>
-      <sheetName val="прибыль предп"/>
-      <sheetName val="сводка по приб"/>
-      <sheetName val="дисконт"/>
-      <sheetName val="доходплощ"/>
-      <sheetName val="НИ пл"/>
-      <sheetName val="доход80"/>
-      <sheetName val="НИ 80"/>
-      <sheetName val="доход79"/>
-      <sheetName val="НИ 79"/>
-      <sheetName val="доход62"/>
-      <sheetName val="НИ 62"/>
-      <sheetName val="доход4"/>
-      <sheetName val="НИ 4"/>
-      <sheetName val="4 (2)"/>
-      <sheetName val="4"/>
-      <sheetName val="62 (2)"/>
-      <sheetName val="62"/>
-      <sheetName val="79 (2)"/>
-      <sheetName val="79"/>
-      <sheetName val="80(кирп) (2)"/>
-      <sheetName val="80(кирп)"/>
-      <sheetName val="80(мет) (2)"/>
-      <sheetName val="80(мет)"/>
-      <sheetName val="80(бет) (2)"/>
-      <sheetName val="80(бет)"/>
-      <sheetName val="площадка (2)"/>
-      <sheetName val="площадка"/>
-      <sheetName val="SFF"/>
-      <sheetName val="арендная ставка"/>
-      <sheetName val="общая сводка"/>
-      <sheetName val="сводка по рыночному методу"/>
-      <sheetName val="Корпус 80"/>
-      <sheetName val="Корпус 79"/>
-      <sheetName val="Корпус 62"/>
-      <sheetName val="Корпус 4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1">
-        <row r="3">
-          <cell r="F3">
-            <v>1.6842510283749963</v>
-          </cell>
-          <cell r="G3">
-            <v>1.6626562797697269</v>
-          </cell>
-          <cell r="H3">
-            <v>1.6783708503579164</v>
-          </cell>
-          <cell r="I3">
-            <v>1.6997987050518062</v>
-          </cell>
-          <cell r="J3">
-            <v>1.6638087046407968</v>
-          </cell>
-          <cell r="K3">
-            <v>1.7399142334614128</v>
-          </cell>
-          <cell r="L3">
-            <v>1.485144002963632</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Рабочий"/>
-      <sheetName val="Содержание"/>
-      <sheetName val="Финанс. калькулятор"/>
-      <sheetName val="Чист. операц. доход"/>
-      <sheetName val="Прямая_капит."/>
-      <sheetName val="Дисконт."/>
-      <sheetName val="Анализ_риска"/>
-      <sheetName val="Сравн._продаж"/>
-      <sheetName val="Отн._анализ"/>
-      <sheetName val="Стоим._земли"/>
-      <sheetName val="Стоим._стр-ва"/>
-      <sheetName val="Объемы работ"/>
-      <sheetName val="Оценка_износа"/>
-      <sheetName val="Наилуч._использ."/>
-      <sheetName val="Регрессия"/>
-      <sheetName val="Макросы1"/>
-      <sheetName val="Макросы2"/>
-      <sheetName val="свед"/>
-      <sheetName val="общие сведения"/>
-      <sheetName val="общие данные"/>
-      <sheetName val="Служебный"/>
-      <sheetName val="восст"/>
-      <sheetName val="СП_КОМПЛЕКС"/>
-      <sheetName val="4.озеленение"/>
-      <sheetName val="6.Продажа квартир"/>
-      <sheetName val="3.ЗАТРАТЫ"/>
-      <sheetName val="Параметры"/>
-      <sheetName val="Спис_Объекты_недв"/>
-      <sheetName val="Метод остатка"/>
-      <sheetName val="общее"/>
-      <sheetName val="затр_подх"/>
-      <sheetName val="исх 1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Доход"/>
-      <sheetName val="1"/>
-      <sheetName val="VFI"/>
-      <sheetName val="LTRate"/>
-      <sheetName val="Ки"/>
-      <sheetName val="Regions"/>
-      <sheetName val="Tab1"/>
-      <sheetName val="Tab2-X"/>
-      <sheetName val="Tab2-1"/>
-      <sheetName val="Tab3"/>
-      <sheetName val="CAD"/>
-      <sheetName val="Const"/>
-      <sheetName val="Аренда Торговля"/>
-      <sheetName val="Аренда СТО"/>
-      <sheetName val="Дисконт"/>
-      <sheetName val="Master Inputs Start Here"/>
-      <sheetName val="HBS initial"/>
-      <sheetName val="график строительства"/>
-      <sheetName val="Исходные"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="график01.09.02"/>
-      <sheetName val="Пересчет_Склады"/>
-      <sheetName val="Лист3"/>
-      <sheetName val="Balance"/>
-      <sheetName val="Расчет_стоимости"/>
-      <sheetName val="общий"/>
-      <sheetName val="НФИк"/>
-      <sheetName val="Инд"/>
-      <sheetName val="2.Продажа квартир"/>
-      <sheetName val="Коррект"/>
-      <sheetName val="Дхд 639,3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
-        <row r="15">
-          <cell r="J15">
-            <v>5348</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
-      <sheetData sheetId="59" refreshError="1"/>
-      <sheetData sheetId="60" refreshError="1"/>
-      <sheetData sheetId="61" refreshError="1"/>
-      <sheetData sheetId="62" refreshError="1"/>
-      <sheetData sheetId="63" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Сравнительный"/>
-      <sheetName val="Рыночный"/>
-      <sheetName val="Рыночный (4)"/>
-      <sheetName val="ст_комплекс"/>
-      <sheetName val="затраты по РМС_комплекс"/>
-      <sheetName val="благоустр"/>
-      <sheetName val="Краткое"/>
-      <sheetName val="сведение"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Общие"/>
-      <sheetName val="Ар. ставка-ТЦ_ (2)"/>
-      <sheetName val="Лист1"/>
-      <sheetName val="Ар. ставка-ТЦ_"/>
-      <sheetName val="Ставка дисконта"/>
-      <sheetName val="земля "/>
-      <sheetName val="Сравнительный (2)"/>
-      <sheetName val="земля  (2)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Сравнительный ЗУ"/>
-      <sheetName val="Земельн уч"/>
-      <sheetName val="Сравнительный Объект"/>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-      <sheetName val="#ССЫЛКА"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Площади"/>
-      <sheetName val="дисконт"/>
-      <sheetName val="резерв на зам"/>
-      <sheetName val="ННЭИ-5 земля_в отчет"/>
-      <sheetName val="НИ 5 земля "/>
-      <sheetName val="ННЭИ-5 земля (2)"/>
-      <sheetName val="НИ 5 земля  (2)"/>
-      <sheetName val="ННЭИ 2вар"/>
-      <sheetName val="НИ 2вар"/>
-      <sheetName val="Ар. ставка-офисы"/>
-      <sheetName val="ДП мах вероятн"/>
-      <sheetName val="НИ"/>
-      <sheetName val="торговля 1"/>
-      <sheetName val="торговля 2"/>
-      <sheetName val="офисы (2)"/>
-      <sheetName val="сравнительный (2)"/>
-      <sheetName val="Сведение"/>
-      <sheetName val="скидка  "/>
-      <sheetName val="#ССЫЛКА"/>
-      <sheetName val="Содержание"/>
-      <sheetName val="Спис_Объекты_недв"/>
-      <sheetName val="восст"/>
-      <sheetName val="Док+Исх"/>
-      <sheetName val="общие данные"/>
-      <sheetName val="ТЭП гостиница"/>
-      <sheetName val="затр_подх"/>
-      <sheetName val="общее"/>
-      <sheetName val="Метод остатка"/>
-      <sheetName val="Brif_zdanie"/>
-      <sheetName val="Служебный"/>
-      <sheetName val="график01.09.02"/>
-      <sheetName val="свед"/>
-      <sheetName val="общие сведения"/>
-      <sheetName val="Balance Sheet"/>
-      <sheetName val="СП_КОМПЛЕКС"/>
-      <sheetName val="4.озеленение"/>
-      <sheetName val="исход"/>
-      <sheetName val="Параметры"/>
-      <sheetName val="d"/>
-      <sheetName val="Начало"/>
-      <sheetName val="график строительства"/>
-      <sheetName val="Запрос"/>
-      <sheetName val="Осн_данные"/>
-      <sheetName val="Исходные данные"/>
-      <sheetName val="НФИк"/>
-      <sheetName val="3.ЗАТРАТЫ"/>
-      <sheetName val="константы"/>
-      <sheetName val="аренда_сравнит"/>
-      <sheetName val="Ставка Д"/>
-      <sheetName val="Лист1"/>
-      <sheetName val="#REF"/>
-      <sheetName val="HBS initial"/>
-      <sheetName val="1"/>
-      <sheetName val="Баланс"/>
-      <sheetName val="Glossary"/>
-      <sheetName val="Резервы"/>
-      <sheetName val="исх 1"/>
-      <sheetName val="2.Продажа квартир"/>
-      <sheetName val="Контрагенты"/>
-      <sheetName val="Параметры ФОТ"/>
-      <sheetName val="Дебиторы"/>
-      <sheetName val="Inputs"/>
-      <sheetName val="6.Продажа квартир"/>
-      <sheetName val="Balance"/>
-      <sheetName val="СрРасчёт"/>
-      <sheetName val="Исходные"/>
-      <sheetName val="Лист3"/>
-      <sheetName val="Расчет тарифов и выручки"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
-      <sheetData sheetId="59" refreshError="1"/>
-      <sheetData sheetId="60" refreshError="1"/>
-      <sheetData sheetId="61" refreshError="1"/>
-      <sheetData sheetId="62" refreshError="1"/>
-      <sheetData sheetId="63" refreshError="1"/>
-      <sheetData sheetId="64" refreshError="1"/>
-      <sheetData sheetId="65" refreshError="1"/>
-      <sheetData sheetId="66" refreshError="1"/>
-      <sheetData sheetId="67" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="неустранимый износ"/>
-      <sheetName val="Затр подх"/>
-      <sheetName val="износы"/>
-      <sheetName val="здание"/>
-      <sheetName val="реконструкция офис"/>
-      <sheetName val="реконструкция"/>
-      <sheetName val="ПП"/>
-      <sheetName val="Земля ост жилье"/>
-      <sheetName val="Земля_сравн"/>
-      <sheetName val="Лист3"/>
-      <sheetName val="#REF"/>
-      <sheetName val="#ССЫЛКА"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="сравнит"/>
-      <sheetName val="ф.из. лит а"/>
-      <sheetName val="УПВС кот."/>
-      <sheetName val="затр_подх"/>
-      <sheetName val="Сведение"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="общие сведения"/>
-      <sheetName val="восст"/>
-      <sheetName val="ремонты"/>
-      <sheetName val="ДП земля"/>
-      <sheetName val="НИ земля"/>
-      <sheetName val="Затр подх"/>
-      <sheetName val="ДП пессимест"/>
-      <sheetName val="НИ 1"/>
-      <sheetName val="аналоги"/>
-      <sheetName val="арендная ставка"/>
-      <sheetName val="дисконт"/>
-      <sheetName val="Сведение"/>
-      <sheetName val="Параметры"/>
-      <sheetName val="Лист1"/>
-      <sheetName val="затр_подх"/>
-      <sheetName val="Док+Исх"/>
-      <sheetName val="Содержание"/>
-      <sheetName val="Спис_Объекты_недв"/>
-      <sheetName val="ЗУ ГУИОН!"/>
-      <sheetName val="общие данные"/>
-      <sheetName val="Метод остатка"/>
-      <sheetName val="Начало"/>
-      <sheetName val="исход-итог"/>
-      <sheetName val="Приложение &quot;ОС&quot;_оборуд"/>
-      <sheetName val="выр"/>
-      <sheetName val="Inputs"/>
-      <sheetName val="1"/>
-      <sheetName val="Ставка Д"/>
-      <sheetName val="ЛитБ"/>
-      <sheetName val="Смета"/>
-      <sheetName val="НФИк"/>
-      <sheetName val="описание"/>
-      <sheetName val="свед"/>
-      <sheetName val="исх 1"/>
-      <sheetName val="1.ИСХ"/>
-      <sheetName val="документы Кириши"/>
-      <sheetName val="общий"/>
-      <sheetName val="3.ЗАТРАТЫ"/>
-      <sheetName val="Расчет_стоимости"/>
-      <sheetName val="график01.09.02"/>
-      <sheetName val="Литер М"/>
-      <sheetName val="Осн_данн"/>
-      <sheetName val="итог тр"/>
-      <sheetName val="Исходные данные"/>
-      <sheetName val="Brif_zdanie"/>
-      <sheetName val="рын_ст_зелен3"/>
-      <sheetName val="общее"/>
-      <sheetName val="Заголовок"/>
-      <sheetName val="прибыль предп"/>
-      <sheetName val="неустр из дж"/>
-      <sheetName val="фуниз"/>
-      <sheetName val="ннэи"/>
-      <sheetName val="ДП пессимест (2)"/>
-      <sheetName val="НИ 1 (2)"/>
-      <sheetName val="Служебный"/>
-      <sheetName val="Исходные"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="ТЭП гостиница"/>
-      <sheetName val="Use"/>
-      <sheetName val="исход_итог"/>
-      <sheetName val="const"/>
-      <sheetName val="General"/>
-      <sheetName val="Assum."/>
-      <sheetName val="нормы"/>
-      <sheetName val="Списки"/>
-      <sheetName val="Ку"/>
-      <sheetName val="Зоны Москвы"/>
-      <sheetName val="ликвидность"/>
-      <sheetName val="поток"/>
-      <sheetName val="Изменения"/>
-      <sheetName val="1.14"/>
-      <sheetName val="1.10"/>
-      <sheetName val="Баз предп"/>
-      <sheetName val="Титул"/>
-      <sheetName val="Справочники"/>
-      <sheetName val="константы"/>
-      <sheetName val="Итоги"/>
-      <sheetName val="Расчет тарифов и выручки"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
-        <row r="403">
-          <cell r="L403">
-            <v>1.4577780767937005</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
       <sheetData sheetId="13" refreshError="1"/>
       <sheetData sheetId="14" refreshError="1"/>
       <sheetData sheetId="15" refreshError="1"/>
@@ -4489,56 +2840,261 @@
       <sheetData sheetId="70" refreshError="1"/>
       <sheetData sheetId="71" refreshError="1"/>
       <sheetData sheetId="72" refreshError="1"/>
-      <sheetData sheetId="73" refreshError="1"/>
-      <sheetData sheetId="74" refreshError="1"/>
-      <sheetData sheetId="75" refreshError="1"/>
-      <sheetData sheetId="76" refreshError="1"/>
-      <sheetData sheetId="77" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Заезд"/>
+      <sheetName val="Лист4"/>
+      <sheetName val="график01.09.02"/>
+      <sheetName val="график разраб план ф (25.09.02)"/>
+      <sheetName val="график строительства (01.10.02)"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+      <sheetName val="график01_09_02"/>
+      <sheetName val="график строительства"/>
+      <sheetName val="9.ДП"/>
+      <sheetName val="1.ИСХ"/>
+      <sheetName val="документы Кириши"/>
+      <sheetName val="Метод остатка"/>
+      <sheetName val="Ценыобъемы"/>
       <sheetName val="Исходные"/>
-      <sheetName val="Выручка"/>
+      <sheetName val="общие сведения"/>
+      <sheetName val="общее"/>
       <sheetName val="Смета"/>
-      <sheetName val="Средняя стоимость"/>
-      <sheetName val="Цены"/>
-      <sheetName val="Анализ сметы"/>
-      <sheetName val="Анализ себестоимости"/>
-      <sheetName val="Исходные данные"/>
+      <sheetName val="исх 1"/>
+      <sheetName val="Расходы"/>
+      <sheetName val="рабочий"/>
+      <sheetName val="исходник"/>
+      <sheetName val="износ"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="исход-итог"/>
+      <sheetName val="Brif_zdanie"/>
+      <sheetName val="НФИк"/>
+      <sheetName val="Параметры"/>
+      <sheetName val="3.ЗУ "/>
+      <sheetName val="свед"/>
+      <sheetName val="Баз предп"/>
+      <sheetName val="2.Продажа квартир"/>
+      <sheetName val="инфо"/>
+      <sheetName val="Содержание"/>
+      <sheetName val="Осн_данные"/>
+      <sheetName val="Константы"/>
+      <sheetName val="инвестиции 2007"/>
+      <sheetName val="ТЭП гостиница"/>
+      <sheetName val="Графики Гаврской 15-17"/>
+      <sheetName val="таблица"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="D3">
+            <v>1.4999999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Затратный"/>
-      <sheetName val="Динамика затрат"/>
-      <sheetName val="Выручка"/>
-      <sheetName val="Доходы"/>
-      <sheetName val="Итог"/>
-      <sheetName val="Смета"/>
-      <sheetName val="Индексы"/>
+      <sheetName val="Диаграмма1"/>
+      <sheetName val="реестр операций"/>
+      <sheetName val="свод"/>
+      <sheetName val="график строительства"/>
+      <sheetName val="Срукт-ра себестоимости"/>
+      <sheetName val="Протокол"/>
+      <sheetName val="Распоряж"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="график01.09.02"/>
+      <sheetName val="Метод остатка"/>
+      <sheetName val="1.ИСХ"/>
+      <sheetName val="документы Кириши"/>
+      <sheetName val="Glossary"/>
+      <sheetName val="Док+Исх"/>
+      <sheetName val="общее"/>
+      <sheetName val="исх 1"/>
+      <sheetName val="Спис_Объекты_недв"/>
+      <sheetName val="затр_подх"/>
+      <sheetName val="ОСЗ"/>
+      <sheetName val="14.ДП"/>
+      <sheetName val="1.ИСХ "/>
+      <sheetName val="общие сведения"/>
+      <sheetName val="график01_09_02"/>
+      <sheetName val="Параметры"/>
+      <sheetName val="Курсы"/>
+      <sheetName val="Содержание"/>
+      <sheetName val="восст"/>
+      <sheetName val="g"/>
+      <sheetName val="НФИк"/>
+      <sheetName val="анализ площадей"/>
+      <sheetName val="9.ДП"/>
+      <sheetName val="Rev"/>
+      <sheetName val="DCF"/>
+      <sheetName val="TOC"/>
+      <sheetName val="ЛитБ"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Расходы"/>
+      <sheetName val="3.ЗУ "/>
+      <sheetName val="свед"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="D3">
+            <v>1.3999999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Календарный план"/>
+      <sheetName val="План расходов"/>
+      <sheetName val="План поступлений"/>
+      <sheetName val="План ДДС"/>
+      <sheetName val="План финансирования"/>
+      <sheetName val="Прибыльность"/>
+      <sheetName val="Анализ чувствительности"/>
+      <sheetName val="Чувствительность (график)"/>
+      <sheetName val="План расходов (график)"/>
+      <sheetName val="Расходы  и  потупления (график)"/>
+      <sheetName val="Проданные квартиры (график)"/>
+      <sheetName val="Поступления от продаж (график)"/>
+      <sheetName val="Проданные гаражи (график)"/>
+      <sheetName val="ДДС (график)"/>
+      <sheetName val="Служебный"/>
+      <sheetName val="1"/>
+      <sheetName val="свед"/>
+      <sheetName val="график строительства"/>
+      <sheetName val="график01.09.02"/>
+      <sheetName val="сведение (2)"/>
+      <sheetName val="бассейн"/>
+      <sheetName val="общее"/>
+      <sheetName val="общие сведения"/>
+      <sheetName val="ЛитБ"/>
+      <sheetName val="Исходные"/>
+      <sheetName val="Параметры"/>
+      <sheetName val="Метод остатка"/>
+      <sheetName val="исход-итог"/>
+      <sheetName val="затр_подх"/>
+      <sheetName val="Glossary"/>
+      <sheetName val="общие данные"/>
+      <sheetName val="исх 1"/>
+      <sheetName val="СРЗУ"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Ставка Д"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="d"/>
+      <sheetName val="НФИк"/>
+      <sheetName val="Расходы"/>
+      <sheetName val=" Assumptions"/>
+      <sheetName val="Расчет тарифов и выручки"/>
+      <sheetName val="Лист3"/>
+      <sheetName val="ar"/>
+      <sheetName val="общий"/>
+      <sheetName val="1.ИСХ"/>
+      <sheetName val="Содержание"/>
+      <sheetName val="Осн_данн"/>
+      <sheetName val="Balance Sheet"/>
+      <sheetName val="СрЗд"/>
+      <sheetName val="Index "/>
+      <sheetName val="Ключевые данные"/>
+      <sheetName val="Финпоказатели"/>
+      <sheetName val="Master Inputs Start here"/>
+      <sheetName val="Док+Исх"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -4546,14 +3102,72 @@
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1">
+        <row r="7">
+          <cell r="J7">
+            <v>0.15</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="J18">
+            <v>1.1499999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4662,50 +3276,124 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Read me first"/>
-      <sheetName val="TOC"/>
-      <sheetName val="Sum"/>
-      <sheetName val="DCF"/>
-      <sheetName val="GLC"/>
-      <sheetName val="AAM"/>
-      <sheetName val="Master Inputs Start Here"/>
-      <sheetName val="CapEx_Depr"/>
-      <sheetName val="Ввод данных Эл. 1"/>
-      <sheetName val="Расчет тарифов и выручки"/>
-      <sheetName val="HBS initial"/>
-      <sheetName val="HIS initial"/>
-      <sheetName val="HBS"/>
-      <sheetName val="HIS"/>
-      <sheetName val="FRA"/>
-      <sheetName val="Assets"/>
-      <sheetName val="Liab"/>
-      <sheetName val="WorkCap"/>
-      <sheetName val="WACC"/>
-      <sheetName val="GLC_data"/>
+      <sheetName val="описание"/>
+      <sheetName val="общие данные"/>
+      <sheetName val="сводка по земле"/>
+      <sheetName val="земля при пустоте"/>
+      <sheetName val="земля при капстр"/>
+      <sheetName val="земля при складах"/>
+      <sheetName val="фун износ"/>
+      <sheetName val="вн_износ"/>
+      <sheetName val="сводка по затратам"/>
+      <sheetName val="Устранимый износ"/>
+      <sheetName val="неустр из кж"/>
+      <sheetName val="неустр из дж"/>
+      <sheetName val="прибыль предп"/>
+      <sheetName val="сводка по приб"/>
+      <sheetName val="дисконт"/>
+      <sheetName val="доходплощ"/>
+      <sheetName val="НИ пл"/>
+      <sheetName val="доход80"/>
+      <sheetName val="НИ 80"/>
+      <sheetName val="доход79"/>
+      <sheetName val="НИ 79"/>
+      <sheetName val="доход62"/>
+      <sheetName val="НИ 62"/>
+      <sheetName val="доход4"/>
+      <sheetName val="НИ 4"/>
+      <sheetName val="4 (2)"/>
+      <sheetName val="4"/>
+      <sheetName val="62 (2)"/>
+      <sheetName val="62"/>
+      <sheetName val="79 (2)"/>
+      <sheetName val="79"/>
+      <sheetName val="80(кирп) (2)"/>
+      <sheetName val="80(кирп)"/>
+      <sheetName val="80(мет) (2)"/>
+      <sheetName val="80(мет)"/>
+      <sheetName val="80(бет) (2)"/>
+      <sheetName val="80(бет)"/>
+      <sheetName val="площадка (2)"/>
+      <sheetName val="площадка"/>
+      <sheetName val="SFF"/>
+      <sheetName val="арендная ставка"/>
+      <sheetName val="общая сводка"/>
+      <sheetName val="сводка по рыночному методу"/>
+      <sheetName val="Корпус 80"/>
+      <sheetName val="Корпус 79"/>
+      <sheetName val="Корпус 62"/>
+      <sheetName val="Корпус 4"/>
+      <sheetName val="Метод остатка"/>
+      <sheetName val="Служебный"/>
+      <sheetName val="Инд"/>
+      <sheetName val="график строительства"/>
+      <sheetName val="общие сведения"/>
+      <sheetName val="СП_КОМПЛЕКС"/>
+      <sheetName val="4.озеленение"/>
+      <sheetName val="общий"/>
+      <sheetName val="2.Продажа квартир"/>
+      <sheetName val="свед"/>
+      <sheetName val="Коррект"/>
+      <sheetName val="6.Продажа квартир"/>
+      <sheetName val="3.ЗАТРАТЫ"/>
+      <sheetName val="Начало"/>
+      <sheetName val="Параметры"/>
+      <sheetName val="ЛитБ"/>
+      <sheetName val="Исходные"/>
+      <sheetName val="график01.09.02"/>
+      <sheetName val="1"/>
+      <sheetName val="3.ЗУ "/>
+      <sheetName val="Содержание"/>
+      <sheetName val="восст"/>
+      <sheetName val="затр_подх"/>
+      <sheetName val="исход-итог"/>
+      <sheetName val="Пересчет_Склады"/>
+      <sheetName val="КО-Инвест"/>
+      <sheetName val="Док+Исх"/>
+      <sheetName val="Balance"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="F3">
+            <v>1.6842510283749963</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1">
+        <row r="3">
+          <cell r="F3">
+            <v>1.6842510283749963</v>
+          </cell>
+          <cell r="G3">
+            <v>1.6626562797697269</v>
+          </cell>
+          <cell r="H3">
+            <v>1.6783708503579164</v>
+          </cell>
+          <cell r="I3">
+            <v>1.6997987050518062</v>
+          </cell>
+          <cell r="J3">
+            <v>1.6638087046407968</v>
+          </cell>
+          <cell r="K3">
+            <v>1.7399142334614128</v>
+          </cell>
+          <cell r="L3">
+            <v>1.485144002963632</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="10">
-          <cell r="D10" t="str">
-            <v>Генерирующая компания</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>38261</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -4716,48 +3404,556 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="61" refreshError="1"/>
+      <sheetData sheetId="62" refreshError="1"/>
+      <sheetData sheetId="63" refreshError="1"/>
+      <sheetData sheetId="64" refreshError="1"/>
+      <sheetData sheetId="65" refreshError="1"/>
+      <sheetData sheetId="66" refreshError="1"/>
+      <sheetData sheetId="67" refreshError="1"/>
+      <sheetData sheetId="68" refreshError="1"/>
+      <sheetData sheetId="69" refreshError="1"/>
+      <sheetData sheetId="70" refreshError="1"/>
+      <sheetData sheetId="71" refreshError="1"/>
+      <sheetData sheetId="72" refreshError="1"/>
+      <sheetData sheetId="73" refreshError="1"/>
+      <sheetData sheetId="74" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Исход"/>
-      <sheetName val="Общ"/>
-      <sheetName val="Инвестиции"/>
-      <sheetName val="График Стр-ва"/>
-      <sheetName val="Индексы"/>
-      <sheetName val="строит (ИТОГО)"/>
-      <sheetName val="График реализации"/>
-      <sheetName val="Весь проект"/>
+      <sheetName val="Рабочий"/>
+      <sheetName val="Содержание"/>
+      <sheetName val="Финанс. калькулятор"/>
+      <sheetName val="Чист. операц. доход"/>
+      <sheetName val="Прямая_капит."/>
+      <sheetName val="Дисконт."/>
+      <sheetName val="Анализ_риска"/>
+      <sheetName val="Сравн._продаж"/>
+      <sheetName val="Отн._анализ"/>
+      <sheetName val="Стоим._земли"/>
+      <sheetName val="Стоим._стр-ва"/>
+      <sheetName val="Объемы работ"/>
+      <sheetName val="Оценка_износа"/>
+      <sheetName val="Наилуч._использ."/>
+      <sheetName val="Регрессия"/>
+      <sheetName val="Макросы1"/>
+      <sheetName val="Макросы2"/>
+      <sheetName val="Служебный"/>
+      <sheetName val="общие данные"/>
+      <sheetName val="СП_КОМПЛЕКС"/>
+      <sheetName val="4.озеленение"/>
+      <sheetName val="восст"/>
+      <sheetName val="Метод остатка"/>
+      <sheetName val="затр_подх"/>
+      <sheetName val="6.Продажа квартир"/>
+      <sheetName val="3.ЗАТРАТЫ"/>
+      <sheetName val="общее"/>
+      <sheetName val="Master Inputs Start Here"/>
+      <sheetName val="HBS initial"/>
+      <sheetName val="Спис_Объекты_недв"/>
+      <sheetName val="свед"/>
+      <sheetName val="общие сведения"/>
+      <sheetName val="Параметры"/>
+      <sheetName val="1"/>
+      <sheetName val="VFI"/>
+      <sheetName val="LTRate"/>
+      <sheetName val="Ки"/>
+      <sheetName val="Regions"/>
+      <sheetName val="Tab1"/>
+      <sheetName val="Tab2-X"/>
+      <sheetName val="Tab2-1"/>
+      <sheetName val="Tab3"/>
+      <sheetName val="CAD"/>
+      <sheetName val="Const"/>
+      <sheetName val="Аренда Торговля"/>
+      <sheetName val="Аренда СТО"/>
+      <sheetName val="Дисконт"/>
+      <sheetName val="исх 1"/>
+      <sheetName val="график строительства"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Доход"/>
+      <sheetName val="Исходные"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="график01.09.02"/>
+      <sheetName val="Пересчет_Склады"/>
+      <sheetName val="Лист3"/>
+      <sheetName val="Balance"/>
+      <sheetName val="Расчет_стоимости"/>
+      <sheetName val="общий"/>
+      <sheetName val="НФИк"/>
+      <sheetName val="Инд"/>
+      <sheetName val="2.Продажа квартир"/>
+      <sheetName val="Коррект"/>
+      <sheetName val="Дхд 639,3"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
+        <row r="15">
+          <cell r="J15">
+            <v>5348</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7">
-        <row r="84">
-          <cell r="C84">
-            <v>-51414118.559999995</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="61" refreshError="1"/>
+      <sheetData sheetId="62" refreshError="1"/>
+      <sheetData sheetId="63" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="сравнит"/>
+      <sheetName val="ф.из. лит а"/>
+      <sheetName val="УПВС кот."/>
+      <sheetName val="затр_подх"/>
+      <sheetName val="Сведение"/>
+      <sheetName val="9.ДП"/>
+      <sheetName val="СП_КОМПЛЕКС"/>
+      <sheetName val="4.озеленение"/>
+      <sheetName val="исх 1"/>
+      <sheetName val="Спис_Объекты_недв"/>
+      <sheetName val="общие данные"/>
+      <sheetName val="общий"/>
+      <sheetName val="Начало"/>
+      <sheetName val="исход-итог"/>
+      <sheetName val="свед"/>
+      <sheetName val="Салова лит А"/>
+      <sheetName val="ЗУ ГУИОН"/>
+      <sheetName val="ПВД"/>
+      <sheetName val="Содержание"/>
+      <sheetName val="Brif_zdanie"/>
+      <sheetName val="var 1"/>
+      <sheetName val="КО-Инвест дду 140"/>
+      <sheetName val="КО-Инв шк"/>
+      <sheetName val="АДДП"/>
+      <sheetName val="ОСЗ"/>
+      <sheetName val="14.ДП"/>
+      <sheetName val="1.ИСХ "/>
+      <sheetName val="7.ЗУ ГУИОН!"/>
+      <sheetName val="3.ЗАТРАТЫ"/>
+      <sheetName val="Const"/>
+      <sheetName val="ИСХОДНИК"/>
+      <sheetName val="Метод остатка"/>
+      <sheetName val="Исх_данные"/>
+      <sheetName val="6.Продажа квартир"/>
+      <sheetName val="общее"/>
+      <sheetName val="Смета"/>
+      <sheetName val="дисконт"/>
+      <sheetName val="2.Продажа квартир"/>
+      <sheetName val="Док+Исх"/>
+      <sheetName val="общие сведения"/>
+      <sheetName val="Параметры"/>
+      <sheetName val="Аренда Торговля"/>
+      <sheetName val="Аренда СТО"/>
+      <sheetName val="Glossary"/>
+      <sheetName val="2002(v2)"/>
+      <sheetName val="Исходные данные"/>
+      <sheetName val="график строительства"/>
+      <sheetName val="СД"/>
+      <sheetName val="Balance Sheet"/>
+      <sheetName val="СРЗУ"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Ар2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="общие сведения"/>
+      <sheetName val="восст"/>
+      <sheetName val="ремонты"/>
+      <sheetName val="ДП земля"/>
+      <sheetName val="НИ земля"/>
+      <sheetName val="Затр подх"/>
+      <sheetName val="ДП пессимест"/>
+      <sheetName val="НИ 1"/>
+      <sheetName val="аналоги"/>
+      <sheetName val="арендная ставка"/>
+      <sheetName val="дисконт"/>
+      <sheetName val="Сведение"/>
+      <sheetName val="затр_подх"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="Параметры"/>
+      <sheetName val="общие данные"/>
+      <sheetName val="ЗУ ГУИОН!"/>
+      <sheetName val="Док+Исх"/>
+      <sheetName val="Содержание"/>
+      <sheetName val="Метод остатка"/>
+      <sheetName val="Спис_Объекты_недв"/>
+      <sheetName val="исход-итог"/>
+      <sheetName val="Смета"/>
+      <sheetName val="Начало"/>
+      <sheetName val="ЛитБ"/>
+      <sheetName val="Приложение &quot;ОС&quot;_оборуд"/>
+      <sheetName val="выр"/>
+      <sheetName val="Inputs"/>
+      <sheetName val="1"/>
+      <sheetName val="Ставка Д"/>
+      <sheetName val="НФИк"/>
+      <sheetName val="описание"/>
+      <sheetName val="свед"/>
+      <sheetName val="исх 1"/>
+      <sheetName val="1.ИСХ"/>
+      <sheetName val="документы Кириши"/>
+      <sheetName val="общий"/>
+      <sheetName val="3.ЗАТРАТЫ"/>
+      <sheetName val="Расчет_стоимости"/>
+      <sheetName val="график01.09.02"/>
+      <sheetName val="Литер М"/>
+      <sheetName val="Осн_данн"/>
+      <sheetName val="итог тр"/>
+      <sheetName val="Исходные данные"/>
+      <sheetName val="Brif_zdanie"/>
+      <sheetName val="рын_ст_зелен3"/>
+      <sheetName val="общее"/>
+      <sheetName val="Заголовок"/>
+      <sheetName val="прибыль предп"/>
+      <sheetName val="неустр из дж"/>
+      <sheetName val="фуниз"/>
+      <sheetName val="ннэи"/>
+      <sheetName val="ДП пессимест (2)"/>
+      <sheetName val="НИ 1 (2)"/>
+      <sheetName val="Служебный"/>
+      <sheetName val="Исходные"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="ТЭП гостиница"/>
+      <sheetName val="Use"/>
+      <sheetName val="исход_итог"/>
+      <sheetName val="const"/>
+      <sheetName val="General"/>
+      <sheetName val="Assum."/>
+      <sheetName val="нормы"/>
+      <sheetName val="Списки"/>
+      <sheetName val="Ку"/>
+      <sheetName val="Зоны Москвы"/>
+      <sheetName val="ликвидность"/>
+      <sheetName val="поток"/>
+      <sheetName val="Изменения"/>
+      <sheetName val="1.14"/>
+      <sheetName val="1.10"/>
+      <sheetName val="Баз предп"/>
+      <sheetName val="Титул"/>
+      <sheetName val="Справочники"/>
+      <sheetName val="константы"/>
+      <sheetName val="Итоги"/>
+      <sheetName val="Расчет тарифов и выручки"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
+        <row r="403">
+          <cell r="L403">
+            <v>1.4577780767937005</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="61" refreshError="1"/>
+      <sheetData sheetId="62" refreshError="1"/>
+      <sheetData sheetId="63" refreshError="1"/>
+      <sheetData sheetId="64" refreshError="1"/>
+      <sheetData sheetId="65" refreshError="1"/>
+      <sheetData sheetId="66" refreshError="1"/>
+      <sheetData sheetId="67" refreshError="1"/>
+      <sheetData sheetId="68" refreshError="1"/>
+      <sheetData sheetId="69" refreshError="1"/>
+      <sheetData sheetId="70" refreshError="1"/>
+      <sheetData sheetId="71" refreshError="1"/>
+      <sheetData sheetId="72" refreshError="1"/>
+      <sheetData sheetId="73" refreshError="1"/>
+      <sheetData sheetId="74" refreshError="1"/>
+      <sheetData sheetId="75" refreshError="1"/>
+      <sheetData sheetId="76" refreshError="1"/>
+      <sheetData sheetId="77" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Заезд"/>
+      <sheetName val="Исходные"/>
+      <sheetName val="Выручка"/>
+      <sheetName val="Смета"/>
+      <sheetName val="Средняя стоимость"/>
+      <sheetName val="Цены"/>
+      <sheetName val="Анализ сметы"/>
+      <sheetName val="Анализ себестоимости"/>
+      <sheetName val="Исходные данные"/>
+      <sheetName val="Начало"/>
+      <sheetName val="свед"/>
+      <sheetName val="график01.09.02"/>
+      <sheetName val="восст"/>
+      <sheetName val="Ставка Д"/>
+      <sheetName val="затр_подх"/>
+      <sheetName val="Базовый запрос (ОС)"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Группы"/>
+      <sheetName val="Параметры"/>
+      <sheetName val="3.ЗАТРАТЫ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4782,7 +3978,65 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Исход"/>
+      <sheetName val="Общ"/>
+      <sheetName val="Инвестиции"/>
+      <sheetName val="График Стр-ва"/>
+      <sheetName val="Индексы"/>
+      <sheetName val="строит (ИТОГО)"/>
+      <sheetName val="График реализации"/>
+      <sheetName val="стоимость квартир, м.-мест, ком"/>
+      <sheetName val="Весь проект"/>
+      <sheetName val="кредит"/>
+      <sheetName val="Затратный"/>
+      <sheetName val="Динамика затрат"/>
+      <sheetName val="Выручка"/>
+      <sheetName val="Доходы"/>
+      <sheetName val="Итог"/>
+      <sheetName val="Смета"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8">
+        <row r="84">
+          <cell r="C84">
+            <v>-804092130.70205998</v>
+          </cell>
+          <cell r="D84">
+            <v>-57344539.568580002</v>
+          </cell>
+          <cell r="E84">
+            <v>-57785512.155011989</v>
+          </cell>
+          <cell r="F84">
+            <v>-58281606.314747982</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4891,7 +4145,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4899,6 +4153,38 @@
       <sheetName val="Расчет"/>
       <sheetName val="Tables"/>
       <sheetName val="Glossary"/>
+      <sheetName val="Док+Исх"/>
+      <sheetName val="общее"/>
+      <sheetName val="Read me first"/>
+      <sheetName val="Метод остатка"/>
+      <sheetName val="Сведение"/>
+      <sheetName val="Содержание"/>
+      <sheetName val="1.ИСХ"/>
+      <sheetName val="документы Кириши"/>
+      <sheetName val="Data"/>
+      <sheetName val="график01.09.02"/>
+      <sheetName val="затр_подх"/>
+      <sheetName val="график строительства"/>
+      <sheetName val="восст"/>
+      <sheetName val="Iznos_VSN53-86"/>
+      <sheetName val="Balance Sheet"/>
+      <sheetName val="Income Statement"/>
+      <sheetName val="Sheet5"/>
+      <sheetName val="Спис_Объекты_недв"/>
+      <sheetName val="Дисконт"/>
+      <sheetName val="свед"/>
+      <sheetName val="Расходы"/>
+      <sheetName val="Master Inputs Start Here"/>
+      <sheetName val="HBS initial"/>
+      <sheetName val="Параметры"/>
+      <sheetName val="KEY"/>
+      <sheetName val="Лист"/>
+      <sheetName val="навигация"/>
+      <sheetName val="Т12"/>
+      <sheetName val="Т3"/>
+      <sheetName val="Assumptions"/>
+      <sheetName val="Аренда Торговля"/>
+      <sheetName val="Аренда СТО"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -5541,6 +4827,100 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Read me first"/>
+      <sheetName val="TOC"/>
+      <sheetName val="Sum"/>
+      <sheetName val="DCF"/>
+      <sheetName val="GLC"/>
+      <sheetName val="AAM"/>
+      <sheetName val="Master Inputs Start Here"/>
+      <sheetName val="CapEx_Depr"/>
+      <sheetName val="Ввод данных Эл. 1"/>
+      <sheetName val="Расчет тарифов и выручки"/>
+      <sheetName val="HBS initial"/>
+      <sheetName val="HIS initial"/>
+      <sheetName val="HBS"/>
+      <sheetName val="HIS"/>
+      <sheetName val="FRA"/>
+      <sheetName val="Assets"/>
+      <sheetName val="Liab"/>
+      <sheetName val="WorkCap"/>
+      <sheetName val="WACC"/>
+      <sheetName val="GLC_data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="10">
+          <cell r="D10" t="str">
+            <v>Генерирующая компания</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>38261</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5612,51 +4992,23 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="прс"/>
-      <sheetName val="#REF"/>
-      <sheetName val="#ССЫЛКА"/>
+      <sheetName val="Затратный"/>
+      <sheetName val="Динамика затрат"/>
+      <sheetName val="Выручка"/>
+      <sheetName val="Доходы"/>
+      <sheetName val="Итог"/>
+      <sheetName val="Смета"/>
+      <sheetName val="Индексы"/>
+      <sheetName val="график01.09.02"/>
+      <sheetName val="свед"/>
+      <sheetName val="Метод остатка"/>
+      <sheetName val="график строительства"/>
+      <sheetName val="Data"/>
+      <sheetName val="1.ИСХ"/>
+      <sheetName val="документы Кириши"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист7"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Ар. ставка-офисы_итого"/>
-      <sheetName val="Ар. ставка-офисы (3)"/>
-      <sheetName val="Для сравнит"/>
-      <sheetName val="Лист1"/>
-      <sheetName val="Срав_прод_склад"/>
-      <sheetName val="Срав_пр_офис_лит"/>
-      <sheetName val="Здания_оф"/>
-      <sheetName val="Аналог_склад"/>
-      <sheetName val="ст_ ар_склад"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Продажа_офис"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
@@ -5668,6 +5020,697 @@
       <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="итог"/>
+      <sheetName val="гараж_объем "/>
+      <sheetName val="гараж_прс"/>
+      <sheetName val="прист гар(а)_объем"/>
+      <sheetName val="прист гар(а)_прс"/>
+      <sheetName val="х-б прист гар_объем"/>
+      <sheetName val="х-б прист гар_прс"/>
+      <sheetName val="тракторный цех_объем"/>
+      <sheetName val="тракторный цех_прс"/>
+      <sheetName val="матер склад_объем"/>
+      <sheetName val="матер_склад_прс"/>
+      <sheetName val="электроцех_объем"/>
+      <sheetName val="электроцех_прс"/>
+      <sheetName val="управа_объем"/>
+      <sheetName val="управа_прс"/>
+      <sheetName val="цех затар_объем"/>
+      <sheetName val="цех затар_прс"/>
+      <sheetName val="магазин со скл_объем"/>
+      <sheetName val="магазин со скл_прс"/>
+      <sheetName val="стоимость_маш"/>
+      <sheetName val="стоимость_мат"/>
+      <sheetName val="разряд"/>
+      <sheetName val="исход-итог"/>
+      <sheetName val="общие сведения"/>
+      <sheetName val="свед"/>
+      <sheetName val="Brif_zdanie"/>
+      <sheetName val="Выписка_РФИ"/>
+      <sheetName val="Имущество_элементы"/>
+      <sheetName val="Rent Assumptions"/>
+      <sheetName val="Потоки"/>
+      <sheetName val="Параметры"/>
+      <sheetName val="восст"/>
+      <sheetName val="корр-ка на S аренда2"/>
+      <sheetName val="Glossary"/>
+      <sheetName val="общий"/>
+      <sheetName val="таб_1"/>
+      <sheetName val="Selling data"/>
+      <sheetName val="Print Calc"/>
+      <sheetName val="Земля"/>
+      <sheetName val="InputTI"/>
+      <sheetName val="БДР"/>
+      <sheetName val="БДР план"/>
+      <sheetName val="Balance Sheet"/>
+      <sheetName val="Income Statement"/>
+      <sheetName val="затр_подх"/>
+      <sheetName val="Капвложения"/>
+      <sheetName val="общие данные"/>
+      <sheetName val="расч_прс_ирлен"/>
+      <sheetName val="Метод остатка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>разряд</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="21" refreshError="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>разряд</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>стоим</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>м</v>
+          </cell>
+          <cell r="B2">
+            <v>11.4</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1</v>
+          </cell>
+          <cell r="B3">
+            <v>7.37</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="B4">
+            <v>7.42</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>1.2000000000000002</v>
+          </cell>
+          <cell r="B5">
+            <v>7.48</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>1.3000000000000003</v>
+          </cell>
+          <cell r="B6">
+            <v>7.55</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>1.4000000000000004</v>
+          </cell>
+          <cell r="B7">
+            <v>7.61</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>1.5000000000000004</v>
+          </cell>
+          <cell r="B8">
+            <v>7.67</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>1.6000000000000005</v>
+          </cell>
+          <cell r="B9">
+            <v>7.74</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>1.7000000000000006</v>
+          </cell>
+          <cell r="B10">
+            <v>7.8</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>1.8000000000000007</v>
+          </cell>
+          <cell r="B11">
+            <v>7.86</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>1.9000000000000008</v>
+          </cell>
+          <cell r="B12">
+            <v>7.92</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>2.0000000000000009</v>
+          </cell>
+          <cell r="B13">
+            <v>7.99</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>2.100000000000001</v>
+          </cell>
+          <cell r="B14">
+            <v>8.0500000000000007</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>2.2000000000000011</v>
+          </cell>
+          <cell r="B15">
+            <v>8.1300000000000008</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>2.3000000000000012</v>
+          </cell>
+          <cell r="B16">
+            <v>8.2100000000000009</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>2.4000000000000012</v>
+          </cell>
+          <cell r="B17">
+            <v>8.2799999999999994</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>2.5000000000000013</v>
+          </cell>
+          <cell r="B18">
+            <v>8.36</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>2.6000000000000014</v>
+          </cell>
+          <cell r="B19">
+            <v>8.44</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>2.7000000000000015</v>
+          </cell>
+          <cell r="B20">
+            <v>8.51</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>2.8000000000000016</v>
+          </cell>
+          <cell r="B21">
+            <v>8.59</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>2.9000000000000017</v>
+          </cell>
+          <cell r="B22">
+            <v>8.66</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>3.0000000000000018</v>
+          </cell>
+          <cell r="B23">
+            <v>8.74</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>3.1000000000000019</v>
+          </cell>
+          <cell r="B24">
+            <v>8.84</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>3.200000000000002</v>
+          </cell>
+          <cell r="B25">
+            <v>8.9600000000000009</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>3.300000000000002</v>
+          </cell>
+          <cell r="B26">
+            <v>9.07</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>3.4000000000000021</v>
+          </cell>
+          <cell r="B27">
+            <v>9.19</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>3.5000000000000022</v>
+          </cell>
+          <cell r="B28">
+            <v>9.3000000000000007</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>3.6000000000000023</v>
+          </cell>
+          <cell r="B29">
+            <v>9.41</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>3.7000000000000024</v>
+          </cell>
+          <cell r="B30">
+            <v>9.52</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>3.8000000000000025</v>
+          </cell>
+          <cell r="B31">
+            <v>9.6300000000000008</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>3.9000000000000026</v>
+          </cell>
+          <cell r="B32">
+            <v>9.75</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>4.0000000000000027</v>
+          </cell>
+          <cell r="B33">
+            <v>9.86</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>4.1000000000000023</v>
+          </cell>
+          <cell r="B34">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>4.200000000000002</v>
+          </cell>
+          <cell r="B35">
+            <v>10.199999999999999</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>4.3000000000000016</v>
+          </cell>
+          <cell r="B36">
+            <v>10.3</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>4.4000000000000012</v>
+          </cell>
+          <cell r="B37">
+            <v>10.5</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>4.5000000000000009</v>
+          </cell>
+          <cell r="B38">
+            <v>10.6</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>4.6000000000000005</v>
+          </cell>
+          <cell r="B39">
+            <v>10.8</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>4.7</v>
+          </cell>
+          <cell r="B40">
+            <v>10.9</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>4.8</v>
+          </cell>
+          <cell r="B41">
+            <v>11.1</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>4.8999999999999995</v>
+          </cell>
+          <cell r="B42">
+            <v>11.2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>4.9999999999999991</v>
+          </cell>
+          <cell r="B43">
+            <v>11.4</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>5.0999999999999988</v>
+          </cell>
+          <cell r="B44">
+            <v>11.5</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>5.1999999999999984</v>
+          </cell>
+          <cell r="B45">
+            <v>11.7</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>5.299999999999998</v>
+          </cell>
+          <cell r="B46">
+            <v>11.9</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>5.3999999999999977</v>
+          </cell>
+          <cell r="B47">
+            <v>12.1</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>5.4999999999999973</v>
+          </cell>
+          <cell r="B48">
+            <v>12.3</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>5.599999999999997</v>
+          </cell>
+          <cell r="B49">
+            <v>12.5</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>5.6999999999999966</v>
+          </cell>
+          <cell r="B50">
+            <v>12.7</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>5.7999999999999963</v>
+          </cell>
+          <cell r="B51">
+            <v>12.9</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>5.8999999999999959</v>
+          </cell>
+          <cell r="B52">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>5.9999999999999956</v>
+          </cell>
+          <cell r="B53">
+            <v>13.2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="общий"/>
+      <sheetName val="ремонт"/>
+      <sheetName val="восст"/>
+      <sheetName val="предпринимат"/>
+      <sheetName val="Затр подх"/>
+      <sheetName val="Сведение"/>
+      <sheetName val="рыночный"/>
+      <sheetName val="расчет ставки дисконта"/>
+      <sheetName val="ДП пессимест"/>
+      <sheetName val="ДП обычный"/>
+      <sheetName val="ДП оптимист"/>
+      <sheetName val="НИ 1"/>
+      <sheetName val="НИ 2"/>
+      <sheetName val="НИ 3 "/>
+      <sheetName val="Излож-е"/>
+      <sheetName val="Изложение"/>
+      <sheetName val="Общие"/>
+      <sheetName val="ТЭП проекта"/>
+      <sheetName val="Интерн"/>
+      <sheetName val="Сводка затрат"/>
+      <sheetName val="Верт планиров"/>
+      <sheetName val="Инж подготовка"/>
+      <sheetName val="Дороги_площ_озелен"/>
+      <sheetName val="Фунд_каркас_перекр"/>
+      <sheetName val="Фунд"/>
+      <sheetName val="Строит_компл"/>
+      <sheetName val="Котельная"/>
+      <sheetName val="ТП_строит"/>
+      <sheetName val="Демонтаж"/>
+      <sheetName val="баланс площ"/>
+      <sheetName val="ЗУ_дох по Гриб (отчет)"/>
+      <sheetName val="Сравнительный (4)"/>
+      <sheetName val="Сравнительный (по нагр_коммер)"/>
+      <sheetName val="аналоги ГУИОНа"/>
+      <sheetName val="Сравнительный по ЗУ"/>
+      <sheetName val="Сравнительный (по нагр_комм (2)"/>
+      <sheetName val="Сравнительный (по нагр_общ)"/>
+      <sheetName val="ЛитБ"/>
+      <sheetName val="Исходные"/>
+      <sheetName val="общее"/>
+      <sheetName val="Метод остатка"/>
+      <sheetName val="Параметры"/>
+      <sheetName val="СТО гатчина"/>
+      <sheetName val="ср_земля"/>
+      <sheetName val="арендная плата"/>
+      <sheetName val="ОСЗ"/>
+      <sheetName val="1.ИСХ "/>
+      <sheetName val="Glossary"/>
+      <sheetName val="Инвест-пр1"/>
+      <sheetName val="Инвест-пр4"/>
+      <sheetName val="Осн_данные"/>
+      <sheetName val="свед"/>
+      <sheetName val="Резервы"/>
+      <sheetName val="дисконт"/>
+      <sheetName val="Исходник"/>
+      <sheetName val="аренда"/>
+      <sheetName val="Осн_данн"/>
+      <sheetName val=" Assump"/>
+      <sheetName val="график01.09.02"/>
+      <sheetName val="исход-итог"/>
+      <sheetName val="исходник (2)"/>
+      <sheetName val="инфо"/>
+      <sheetName val="Стоим._стр-ва"/>
+      <sheetName val="разряд"/>
+      <sheetName val="FES"/>
+      <sheetName val="2001"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="3">
+          <cell r="E3">
+            <v>27.77</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="61" refreshError="1"/>
+      <sheetData sheetId="62" refreshError="1"/>
+      <sheetData sheetId="63" refreshError="1"/>
+      <sheetData sheetId="64" refreshError="1"/>
+      <sheetData sheetId="65" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5716,7 +5759,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5751,7 +5794,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5965,8 +6008,8 @@
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5984,38 +6027,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15">
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="43" customFormat="1" ht="15">
-      <c r="D2" s="36"/>
+    <row r="2" spans="1:16" s="32" customFormat="1" ht="15">
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
-    <row r="5" spans="1:16" s="43" customFormat="1" ht="15">
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+    <row r="5" spans="1:16" s="32" customFormat="1" ht="15">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
@@ -6062,346 +6105,346 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="9"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="9"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="40">
+      <c r="E13" s="25"/>
+      <c r="F13" s="31">
         <v>0</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="31">
         <v>1</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="31">
         <v>2</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="31">
         <v>3</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="31">
         <v>4</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="31">
         <v>5</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="31">
         <v>6</v>
       </c>
-      <c r="M13" s="40">
+      <c r="M13" s="31">
         <v>7</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16">
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="24">
         <v>0.115</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16">
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="42">
+      <c r="F15" s="21"/>
+      <c r="G15" s="39">
         <v>7</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16">
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23">
         <f>F8</f>
         <v>940059458.39999974</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="4:16">
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23">
         <f>F16</f>
         <v>940059458.39999974</v>
       </c>
-      <c r="G17" s="14">
-        <f>F21</f>
+      <c r="G17" s="12">
+        <f t="shared" ref="G17:M17" si="0">F21</f>
         <v>1048166296.1159997</v>
       </c>
-      <c r="H17" s="14">
-        <f>G21</f>
+      <c r="H17" s="12">
+        <f t="shared" si="0"/>
         <v>942663068.86930227</v>
       </c>
-      <c r="I17" s="14">
-        <f>H21</f>
+      <c r="I17" s="12">
+        <f t="shared" si="0"/>
         <v>825026970.48923469</v>
       </c>
-      <c r="J17" s="14">
-        <f>I21</f>
+      <c r="J17" s="12">
+        <f t="shared" si="0"/>
         <v>693862720.79545927</v>
       </c>
-      <c r="K17" s="14">
-        <f>J21</f>
+      <c r="K17" s="12">
+        <f t="shared" si="0"/>
         <v>547614582.38689971</v>
       </c>
-      <c r="L17" s="14">
-        <f>K21</f>
+      <c r="L17" s="12">
+        <f t="shared" si="0"/>
         <v>384547908.06135583</v>
       </c>
-      <c r="M17" s="14">
-        <f>L21</f>
+      <c r="M17" s="12">
+        <f t="shared" si="0"/>
         <v>202728566.18837437</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
     </row>
     <row r="18" spans="4:16">
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="14">
+      <c r="E18" s="21"/>
+      <c r="F18" s="12">
         <f>F17*E14</f>
         <v>108106837.71599998</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="4:16">
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="14">
-        <f>G17*$E$14</f>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="12">
+        <f t="shared" ref="G19:M19" si="1">G17*$E$14</f>
         <v>120539124.05333997</v>
       </c>
-      <c r="H19" s="14">
-        <f>H17*$E$14</f>
+      <c r="H19" s="12">
+        <f t="shared" si="1"/>
         <v>108406252.91996977</v>
       </c>
-      <c r="I19" s="14">
-        <f>I17*$E$14</f>
+      <c r="I19" s="12">
+        <f t="shared" si="1"/>
         <v>94878101.606261998</v>
       </c>
-      <c r="J19" s="14">
-        <f>J17*$E$14</f>
+      <c r="J19" s="12">
+        <f t="shared" si="1"/>
         <v>79794212.891477823</v>
       </c>
-      <c r="K19" s="14">
-        <f>K17*$E$14</f>
+      <c r="K19" s="12">
+        <f t="shared" si="1"/>
         <v>62975676.974493466</v>
       </c>
-      <c r="L19" s="14">
-        <f>L17*$E$14</f>
+      <c r="L19" s="12">
+        <f t="shared" si="1"/>
         <v>44223009.427055925</v>
       </c>
-      <c r="M19" s="14">
-        <f>M17*$E$14</f>
+      <c r="M19" s="12">
+        <f t="shared" si="1"/>
         <v>23313785.111663055</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" spans="4:16">
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24">
-        <f>$G$22-G19</f>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22">
+        <f t="shared" ref="G20:M20" si="2">$G$22-G19</f>
         <v>105503227.24669741</v>
       </c>
-      <c r="H20" s="24">
-        <f>$G$22-H19</f>
+      <c r="H20" s="22">
+        <f t="shared" si="2"/>
         <v>117636098.38006762</v>
       </c>
-      <c r="I20" s="24">
-        <f>$G$22-I19</f>
+      <c r="I20" s="22">
+        <f t="shared" si="2"/>
         <v>131164249.69377539</v>
       </c>
-      <c r="J20" s="24">
-        <f>$G$22-J19</f>
+      <c r="J20" s="22">
+        <f t="shared" si="2"/>
         <v>146248138.40855956</v>
       </c>
-      <c r="K20" s="24">
-        <f>$G$22-K19</f>
+      <c r="K20" s="22">
+        <f t="shared" si="2"/>
         <v>163066674.32554391</v>
       </c>
-      <c r="L20" s="24">
-        <f>$G$22-L19</f>
+      <c r="L20" s="22">
+        <f t="shared" si="2"/>
         <v>181819341.87298146</v>
       </c>
-      <c r="M20" s="24">
-        <f>$G$22-M19</f>
+      <c r="M20" s="22">
+        <f t="shared" si="2"/>
         <v>202728566.18837434</v>
       </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
     </row>
     <row r="21" spans="4:16">
       <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="14">
+      <c r="E21" s="21"/>
+      <c r="F21" s="12">
         <f>F17+F18</f>
         <v>1048166296.1159997</v>
       </c>
-      <c r="G21" s="14">
-        <f>F21-G20</f>
+      <c r="G21" s="12">
+        <f t="shared" ref="G21:M21" si="3">F21-G20</f>
         <v>942663068.86930227</v>
       </c>
-      <c r="H21" s="14">
-        <f>G21-H20</f>
+      <c r="H21" s="12">
+        <f t="shared" si="3"/>
         <v>825026970.48923469</v>
       </c>
-      <c r="I21" s="14">
-        <f>H21-I20</f>
+      <c r="I21" s="12">
+        <f t="shared" si="3"/>
         <v>693862720.79545927</v>
       </c>
-      <c r="J21" s="14">
-        <f>I21-J20</f>
+      <c r="J21" s="12">
+        <f t="shared" si="3"/>
         <v>547614582.38689971</v>
       </c>
-      <c r="K21" s="14">
-        <f>J21-K20</f>
+      <c r="K21" s="12">
+        <f t="shared" si="3"/>
         <v>384547908.06135583</v>
       </c>
-      <c r="L21" s="14">
-        <f>K21-L20</f>
+      <c r="L21" s="12">
+        <f t="shared" si="3"/>
         <v>202728566.18837437</v>
       </c>
-      <c r="M21" s="14">
-        <f>L21-M20</f>
+      <c r="M21" s="12">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
     </row>
     <row r="22" spans="4:16" ht="25.5">
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24">
+      <c r="E22" s="33"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22">
         <f>-PMT(E14,G15,F21,,0)</f>
         <v>226042351.30003738</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="4:16">
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="7"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="4:16">
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7077,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3">
-        <f>-SUM('[1]Весь проект'!C84:F84)</f>
+        <f>-SUM('[26]Весь проект'!C84:F84)</f>
         <v>977503788.74039996</v>
       </c>
       <c r="D1" s="1"/>
@@ -7113,24 +7156,24 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="38.25">
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1"/>
@@ -7140,38 +7183,38 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>2</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>3</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="8">
         <v>4</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="8">
         <v>5</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16">
       <c r="D7" s="1" t="s">
@@ -7186,11 +7229,11 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
       <c r="D8" s="1" t="s">
@@ -7205,11 +7248,11 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16">
       <c r="D9" s="1" t="s">
@@ -7225,11 +7268,11 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16">
       <c r="D10" s="1" t="s">
@@ -7240,51 +7283,51 @@
         <f>F9</f>
         <v>782003030.99232006</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <f>F11+F10</f>
         <v>875843394.71139848</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <f>G14</f>
         <v>737977120.72753894</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <f>H14</f>
         <v>583566893.86561632</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <f>I14</f>
         <v>410627439.78026295</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="10">
         <f>J14</f>
         <v>216935251.20466715</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16">
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <f>F10*E7</f>
         <v>93840363.719078407</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16">
       <c r="D12" s="1" t="s">
@@ -7292,31 +7335,31 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <f>$E$15-G13</f>
         <v>137866273.98385954</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <f>$E$15-H13</f>
         <v>154410226.86192268</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <f>$E$15-I13</f>
         <v>172939454.08535337</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="13">
         <f>$E$15-J13</f>
         <v>193692188.5755958</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="13">
         <f>$E$15-K13</f>
         <v>216935251.20466727</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16">
       <c r="D13" s="1" t="s">
@@ -7324,72 +7367,72 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <f>G10*$E$7</f>
         <v>105101207.36536781</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <f>H10*$E$7</f>
         <v>88557254.487304673</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <f>I10*$E$7</f>
         <v>70028027.26387395</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="10">
         <f>J10*$E$7</f>
         <v>49275292.77363155</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="10">
         <f>K10*$E$7</f>
         <v>26032230.144560058</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16">
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <f>G10</f>
         <v>875843394.71139848</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <f>F14-G12</f>
         <v>737977120.72753894</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <f>G14-H12</f>
         <v>583566893.86561632</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="10">
         <f>H14-I12</f>
         <v>410627439.78026295</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="10">
         <f>I14-J12</f>
         <v>216935251.20466715</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="10">
         <f>J14-K12</f>
         <v>0</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16">
       <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <f>-PMT(E7,E8,F14,,0)</f>
         <v>242967481.34922734</v>
       </c>
@@ -7399,29 +7442,29 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7429,36 +7472,36 @@
       <c r="E17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="19">
-        <f>C3+C2+'[1]Весь проект'!E95</f>
+      <c r="F17" s="17">
+        <f>C3+C2+'[26]Весь проект'!E95</f>
         <v>977503788.74040008</v>
       </c>
-      <c r="G17" s="20">
-        <f>F17+'[1]Весь проект'!F95-G12-G13</f>
+      <c r="G17" s="18">
+        <f>F17+'[26]Весь проект'!F95-G12-G13</f>
         <v>734536307.39117277</v>
       </c>
-      <c r="H17" s="20">
-        <f>G17+'[1]Весь проект'!G95-H12-H13</f>
+      <c r="H17" s="18">
+        <f>G17+'[26]Весь проект'!G95-H12-H13</f>
         <v>491568826.04194546</v>
       </c>
-      <c r="I17" s="20">
-        <f>H17+'[1]Весь проект'!H95-I12-I13</f>
+      <c r="I17" s="18">
+        <f>H17+'[26]Весь проект'!H95-I12-I13</f>
         <v>248601344.69271815</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="18">
         <f>I17-J13-J14</f>
         <v>-17609199.285580546</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="18">
         <f>J17-K12-K13</f>
         <v>-260576680.63480788</v>
       </c>
     </row>
     <row r="18" spans="5:11">
-      <c r="F18" s="21"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="5:11">
-      <c r="G19" s="22"/>
+      <c r="G19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
